--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,15 +693,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZonMW Project Controlled Vocabulary of Variables</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>covid19</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -728,7 +732,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -763,12 +767,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Controlled vocabulary of variables used in ZonMV COVID project</t>
+          <t>ZonMW Project Controlled Vocabulary of Variables</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -798,10 +802,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>dct:description</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Controlled vocabulary of variables used in ZonMV COVID project</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -829,14 +837,10 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://spdx.org/licenses/CC0-1.0 </t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -864,12 +868,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t xml:space="preserve">https://spdx.org/licenses/CC0-1.0 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -899,12 +903,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-02-08T10:36:00+00:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -934,12 +938,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2020-10-30T13:43:00+00:00</t>
+          <t>2021-02-08T10:36:00+00:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -969,79 +973,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>skos:relatedMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>2020-10-30T13:43:00+00:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1056,35 +1008,79 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>id-amr:10000</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Deprecated</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>This is a set of controlled terms which are deprecated.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>skos:relatedMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1099,16 +1095,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id-amr:10001</t>
+          <t>id-amr:10000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>diary cattle</t>
+          <t>Deprecated</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>This is a set of controlled terms which are deprecated.</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
@@ -1138,12 +1138,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id-amr:10002</t>
+          <t>covid19:10001</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>veal calve</t>
+          <t>spatial scope</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1173,19 +1173,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>id-amr:10003</t>
+          <t>id-amr:10001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>beef cattle</t>
+          <t>diary cattle</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>covid19:10001</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1208,12 +1216,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>id-amr:10004</t>
+          <t>id-amr:10002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>buffalo</t>
+          <t>veal calve</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1243,12 +1251,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>id-amr:10005</t>
+          <t>id-amr:10003</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sheep (wool)</t>
+          <t>beef cattle</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1278,12 +1286,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>id-amr:10006</t>
+          <t>id-amr:10004</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sheep (milk)</t>
+          <t>buffalo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1313,12 +1321,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>id-amr:10007</t>
+          <t>id-amr:10005</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>goat (meat)</t>
+          <t>sheep (wool)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1348,12 +1356,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>id-amr:10008</t>
+          <t>id-amr:10006</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>goat (milk)</t>
+          <t>sheep (milk)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1383,12 +1391,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>id-amr:10009</t>
+          <t>id-amr:10007</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>goat (meat)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1418,12 +1426,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>id-amr:10010</t>
+          <t>id-amr:10008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pig</t>
+          <t>goat (milk)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1453,12 +1461,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>id-amr:10011</t>
+          <t>id-amr:10009</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>broiler</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1488,12 +1496,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>id-amr:10012</t>
+          <t>id-amr:10010</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>animal group</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1523,12 +1531,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>id-amr:10013</t>
+          <t>id-amr:10011</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>insect</t>
+          <t>broiler</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1558,12 +1566,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>id-amr:10014</t>
+          <t>id-amr:10012</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>livestock</t>
+          <t>animal group</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1593,12 +1601,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>id-amr:10015</t>
+          <t>id-amr:10013</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>poultry</t>
+          <t>insect</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1628,12 +1636,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>id-amr:10016</t>
+          <t>id-amr:10014</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>wildlife</t>
+          <t>livestock</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1663,12 +1671,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>id-amr:10017</t>
+          <t>id-amr:10015</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>companion animal</t>
+          <t>poultry</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1695,6 +1703,76 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>id-amr:10016</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>wildlife</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>id-amr:10017</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>companion animal</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -978,7 +978,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2020-10-30T13:43:00+00:00</t>
+          <t>2021-06-29T08:26:00+00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1138,12 +1138,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>covid19:10001</t>
+          <t>covid19:10225</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>spatial scope</t>
+          <t>focus area</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1178,14 +1178,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>diary cattle</t>
+          <t>therapeutics</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>covid19:10001</t>
+          <t>covid19:10225</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1221,12 +1221,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>veal calve</t>
+          <t>surveillance</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1251,17 +1255,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>id-amr:10003</t>
+          <t>covid19:10232</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>beef cattle</t>
+          <t>diagnostics</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1291,12 +1299,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>buffalo</t>
+          <t>transmission</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1326,12 +1338,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sheep (wool)</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1361,12 +1377,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sheep (milk)</t>
+          <t>appropriate use antimicrobials</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1396,12 +1416,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>goat (meat)</t>
+          <t>stewardship</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1431,12 +1455,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>goat (milk)</t>
+          <t>zoonotic disease</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1466,12 +1494,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>non-foodborne zoonotic disease</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1501,12 +1533,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pig</t>
+          <t>non-foodborne disease</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1536,12 +1572,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>broiler</t>
+          <t>foodborne disease</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1571,12 +1611,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>animal group</t>
+          <t>microbiome</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1606,12 +1650,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>insect</t>
+          <t>other focus area</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>covid19:10225</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1641,7 +1689,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>livestock</t>
+          <t>One Health domain</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1676,12 +1724,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>poultry</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>id-amr:10014, covid19:10145</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1711,12 +1763,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>wildlife</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>id-amr:10014, covid19:10145</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1746,12 +1802,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>companion animal</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>id-amr:10014</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1773,6 +1833,2506 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>id-amr:10018</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>id-amr:10014</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>id-amr:10019</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>microorganism</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>id-amr:10014, covid19:10145</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>id-amr:10020</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>disease</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>id-amr:10014</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>covid19:10017</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>temporal scope</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>id-amr:10021</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>diagnostic phase</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>covid19:10017</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>id-amr:10022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>screening phase</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>covid19:10017</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>id-amr:10023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>intervention phase</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>covid19:10017</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>id-amr:10024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>disease phase</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>covid19:10017</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>id-amr:10025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>free-from-disease phase</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>covid19:10017</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>aftercare phase</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>covid19:10017</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>id-amr:10027</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>population group</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>id-amr:10028</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>subject with an infection</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>id-amr:10029</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>subject with a bacterial infection</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>id-amr:10030</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>subject with a viral infection</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>id-amr:10031</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>subject with an unknown infection</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>id-amr:10032</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>subject with risk of infection</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>id-amr:10033</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>subject with risk of bacterial infection</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>id-amr:10034</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>subject with risk of viral infection</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>id-amr:10035</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>subject having antimicrobial treatment</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>id-amr:10036</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>subject having vaccination</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>id-amr:10037</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>subject having other treatments</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>id-amr:10038</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>subject by age</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>id-amr:10039</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>subject by sex</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>id-amr:10040</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>infectious agent</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>pathogen</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>id-amr:10041</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>infectious agent having antimicrobial resistance</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>covid19:10037</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>id-amr:10042</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>id-amr:10017</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>id-amr:10043</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>soil-waste</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>id-amr:10017</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>id-amr:10044</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>id-amr:10017</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>id-amr:10045</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>id-amr:10017</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>id-amr:10046</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>id-amr:10017</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>livestock</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>id-amr:10016</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>id-amr:10048</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>diary cattle</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>id-amr:10049</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>veal calve</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>id-amr:10050</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>beef cattle</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>id-amr:10051</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>buffalo</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>id-amr:10052</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sheep (wool)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>id-amr:10053</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sheep (milk)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>id-amr:10054</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>goat (meat)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>id-amr:10055</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>goat (milk)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>id-amr:10056</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>id-amr:10057</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>pig</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>id-amr:10058</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>broiler</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>id-amr:10059</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>layer</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>id-amr:10060</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>poultry</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>id-amr:10047</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>id-amr:10061</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>insect</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>id-amr:10016</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>id-amr:10062</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>wildlife</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>id-amr:10016</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>id-amr:10063</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>companion animal</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>id-amr:10016</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>id-amr:10065</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>fungus</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>id-amr:10019</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>id-amr:10066</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>fish (aquaculture)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>id-amr:10016</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>covid19:10145</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>covid19:10169</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>id-amr:10068</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>epidemiological data</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>covid19:10169</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>id-amr:10069</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>diagnostics usage data</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>id-amr:10070</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">complete medical records </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>id-amr:10071</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>imaging data</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>id-amr:10072</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>data with respect to resistance</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>id-amr:10073</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>health status data</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>id-amr:10074</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>taxonomical data</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>covid19:10125</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>survey data</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>covid19:10122</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>economic data</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>covid19:10114</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>treatment data</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>covid19:10127</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>environmental data</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>covid19:10244</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>genomics data</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>covid19:10112</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>physiological data</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>covid19:10132</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>audiovisual data</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>covid19:10107</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3721,11 +3721,7 @@
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>covid19:10145</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3760,11 +3756,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>covid19:10169</t>
-        </is>
-      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3803,11 +3795,7 @@
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>covid19:10169</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -4333,6 +4321,68 @@
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>covid19:10145</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>covid19:10169</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4327,7 +4327,11 @@
           <t>covid19:10145</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>organism</t>
+        </is>
+      </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -4352,37 +4356,6 @@
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>covid19:10169</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4356,6 +4356,41 @@
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>covid19:10169</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,12 +503,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pav</t>
+          <t>gen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/pav/</t>
+          <t>http://purl.org/zonmw/generic/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -542,12 +542,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>pav</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://purl.org/dc/terms/</t>
+          <t>http://purl.org/pav/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -581,12 +581,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>owl</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#</t>
+          <t>http://purl.org/dc/terms/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -620,12 +620,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>xsd</t>
+          <t>owl</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2001/XMLSchema#</t>
+          <t>http://www.w3.org/2002/07/owl#</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -659,12 +659,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>skos</t>
+          <t>xsd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
+          <t>http://www.w3.org/2001/XMLSchema#</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -698,12 +698,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>covid19</t>
+          <t>skos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://purl.org/zonmw/covid19/</t>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -732,15 +732,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZonMW Project Controlled Vocabulary of Variables</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>covid19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>http://purl.org/zonmw/covid19/</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -767,7 +771,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -802,12 +806,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Controlled vocabulary of variables used in ZonMV COVID project</t>
+          <t>ZonMW Project Controlled Vocabulary of Variables</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -837,10 +841,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>dct:description</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Controlled vocabulary of variables used in ZonMV COVID project</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -868,14 +876,10 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://spdx.org/licenses/CC0-1.0 </t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -903,12 +907,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t xml:space="preserve">https://spdx.org/licenses/CC0-1.0 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -938,12 +942,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-02-08T10:36:00+00:00</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -973,12 +977,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-06-29T08:26:00+00:00</t>
+          <t>2021-02-08T10:36:00+00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1008,79 +1012,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>skos:relatedMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>2021-06-29T08:26:00+00:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1095,35 +1047,79 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>id-amr:10000</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Deprecated</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>This is a set of controlled terms which are deprecated.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>skos:relatedMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1138,19 +1134,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>id-amr:10000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>focus area</t>
+          <t>Deprecated</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>This is a set of controlled terms which are deprecated.</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1173,27 +1177,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>id-amr:10001</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>therapeutics</t>
+          <t>focus area</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>covid19:10225</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1216,23 +1212,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>id-amr:10002</t>
+          <t>id-amr:10001</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>surveillance</t>
+          <t>therapeutics</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1255,19 +1255,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>covid19:10232</t>
+          <t>id-amr:10002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>diagnostics</t>
+          <t>surveillance</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1294,19 +1294,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>id-amr:10004</t>
+          <t>covid19:10232</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>transmission</t>
+          <t>diagnostics</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1333,19 +1333,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>id-amr:10005</t>
+          <t>id-amr:10004</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>transmission</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1372,19 +1372,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>id-amr:10006</t>
+          <t>id-amr:10005</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>appropriate use antimicrobials</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1411,19 +1411,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>id-amr:10007</t>
+          <t>id-amr:10006</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>stewardship</t>
+          <t>appropriate use antimicrobials</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1450,19 +1450,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>id-amr:10008</t>
+          <t>id-amr:10007</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>zoonotic disease</t>
+          <t>stewardship</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1489,19 +1489,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>id-amr:10009</t>
+          <t>id-amr:10008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>non-foodborne zoonotic disease</t>
+          <t>zoonotic disease</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1528,19 +1528,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>id-amr:10010</t>
+          <t>id-amr:10009</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>non-foodborne disease</t>
+          <t>non-foodborne zoonotic disease</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1567,19 +1567,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>id-amr:10011</t>
+          <t>id-amr:10010</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>foodborne disease</t>
+          <t>non-foodborne disease</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1606,19 +1606,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>id-amr:10012</t>
+          <t>id-amr:10011</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>microbiome</t>
+          <t>foodborne disease</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1645,19 +1645,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>id-amr:10013</t>
+          <t>id-amr:10012</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>other focus area</t>
+          <t>microbiome</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1684,17 +1684,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>id-amr:10014</t>
+          <t>id-amr:10013</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>One Health domain</t>
+          <t>other focus area</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>gen:10001</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1719,19 +1723,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>id-amr:10015</t>
+          <t>id-amr:10014</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>One Health domain</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>id-amr:10014, covid19:10145</t>
+          <t>id-amr:10084</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1758,19 +1762,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>id-amr:10016</t>
+          <t>id-amr:10015</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>id-amr:10014, covid19:10145</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1797,19 +1801,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>id-amr:10017</t>
+          <t>id-amr:10016</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>id-amr:10014</t>
+          <t>id-amr:10084, gen:10008</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1836,19 +1840,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>id-amr:10018</t>
+          <t>id-amr:10017</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>id-amr:10014</t>
+          <t>id-amr:10084</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -1875,19 +1879,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>id-amr:10019</t>
+          <t>id-amr:10018</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>microorganism</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>id-amr:10014, covid19:10145</t>
+          <t>id-amr:10084</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1914,19 +1918,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>id-amr:10020</t>
+          <t>id-amr:10019</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>disease</t>
+          <t>microorganism</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>id-amr:10014</t>
+          <t>id-amr:10014, gen:10008</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -1953,17 +1957,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>covid19:10017</t>
+          <t>id-amr:10020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>temporal scope</t>
+          <t>disease</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>id-amr:10014</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -1988,21 +1996,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>id-amr:10021</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>diagnostic phase</t>
+          <t>temporal scope</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>covid19:10017</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -2027,19 +2031,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>id-amr:10022</t>
+          <t>id-amr:10021</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>screening phase</t>
+          <t>diagnostic phase</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>covid19:10017</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2066,19 +2070,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>id-amr:10023</t>
+          <t>id-amr:10022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>intervention phase</t>
+          <t>screening phase</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>covid19:10017</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2105,19 +2109,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>id-amr:10024</t>
+          <t>id-amr:10023</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>disease phase</t>
+          <t>intervention phase</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>covid19:10017</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2144,19 +2148,19 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>id-amr:10025</t>
+          <t>id-amr:10024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>free-from-disease phase</t>
+          <t>disease phase</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>covid19:10017</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2183,19 +2187,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>id-amr:10025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>aftercare phase</t>
+          <t>free-from-disease phase</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>covid19:10017</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -2222,17 +2226,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>id-amr:10027</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>population group</t>
+          <t>aftercare phase</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>gen:10003</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -2257,21 +2265,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>id-amr:10028</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>subject with an infection</t>
+          <t>population group</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>covid19:10037</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -2296,19 +2300,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>id-amr:10029</t>
+          <t>id-amr:10028</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>subject with a bacterial infection</t>
+          <t>subject with an infection</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2335,19 +2339,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>id-amr:10030</t>
+          <t>id-amr:10029</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>subject with a viral infection</t>
+          <t>subject with a bacterial infection</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -2374,19 +2378,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>id-amr:10031</t>
+          <t>id-amr:10030</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>subject with an unknown infection</t>
+          <t>subject with a viral infection</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2413,19 +2417,19 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>id-amr:10032</t>
+          <t>id-amr:10031</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>subject with risk of infection</t>
+          <t>subject with an unknown infection</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -2452,19 +2456,19 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>id-amr:10033</t>
+          <t>id-amr:10032</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>subject with risk of bacterial infection</t>
+          <t>subject with risk of infection</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2491,19 +2495,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>id-amr:10034</t>
+          <t>id-amr:10033</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>subject with risk of viral infection</t>
+          <t>subject with risk of bacterial infection</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2530,19 +2534,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>id-amr:10035</t>
+          <t>id-amr:10034</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>subject having antimicrobial treatment</t>
+          <t>subject with risk of viral infection</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2569,19 +2573,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>id-amr:10036</t>
+          <t>id-amr:10035</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>subject having vaccination</t>
+          <t>subject having antimicrobial treatment</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2608,19 +2612,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>id-amr:10037</t>
+          <t>id-amr:10036</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>subject having other treatments</t>
+          <t>subject having vaccination</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2647,19 +2651,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>id-amr:10038</t>
+          <t>id-amr:10037</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>subject by age</t>
+          <t>subject having other treatments</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2686,19 +2690,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>id-amr:10039</t>
+          <t>id-amr:10038</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>subject by sex</t>
+          <t>subject by age</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -2725,23 +2729,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>id-amr:10040</t>
+          <t>id-amr:10039</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>infectious agent</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>pathogen</t>
-        </is>
-      </c>
+          <t>subject by sex</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -2768,19 +2768,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>id-amr:10041</t>
+          <t>id-amr:10040</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>infectious agent having antimicrobial resistance</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>infectious agent</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>pathogen</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -2807,19 +2811,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>id-amr:10042</t>
+          <t>id-amr:10041</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>infectious agent having antimicrobial resistance</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>id-amr:10017</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -2846,19 +2850,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>id-amr:10043</t>
+          <t>id-amr:10042</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>soil-waste</t>
+          <t>soil</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>id-amr:10017</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -2885,19 +2889,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>id-amr:10044</t>
+          <t>id-amr:10043</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>wastewater</t>
+          <t>soil-waste</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>id-amr:10017</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -2924,19 +2928,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>id-amr:10045</t>
+          <t>id-amr:10044</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>wastewater</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>id-amr:10017</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -2963,19 +2967,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>id-amr:10046</t>
+          <t>id-amr:10045</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>id-amr:10017</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -3002,19 +3006,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>id-amr:10047</t>
+          <t>id-amr:10046</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>livestock</t>
+          <t>air</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>id-amr:10016</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -3041,19 +3045,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>id-amr:10048</t>
+          <t>id-amr:10047</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>diary cattle</t>
+          <t>livestock</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>id-amr:10047</t>
+          <t>id-amr:10016</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -3080,12 +3084,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>id-amr:10049</t>
+          <t>id-amr:10048</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>veal calve</t>
+          <t>diary cattle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3119,12 +3123,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>id-amr:10050</t>
+          <t>id-amr:10049</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>beef cattle</t>
+          <t>veal calve</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3158,12 +3162,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>id-amr:10051</t>
+          <t>id-amr:10050</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>buffalo</t>
+          <t>beef cattle</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3197,12 +3201,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>id-amr:10052</t>
+          <t>id-amr:10051</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sheep (wool)</t>
+          <t>buffalo</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3236,12 +3240,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>id-amr:10053</t>
+          <t>id-amr:10052</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sheep (milk)</t>
+          <t>sheep (wool)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3275,12 +3279,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>id-amr:10054</t>
+          <t>id-amr:10053</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>goat (meat)</t>
+          <t>sheep (milk)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3314,12 +3318,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>id-amr:10055</t>
+          <t>id-amr:10054</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>goat (milk)</t>
+          <t>goat (meat)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3353,12 +3357,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>id-amr:10056</t>
+          <t>id-amr:10055</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>goat (milk)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3392,12 +3396,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>id-amr:10057</t>
+          <t>id-amr:10056</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>pig</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3431,12 +3435,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>id-amr:10058</t>
+          <t>id-amr:10057</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>broiler</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3470,12 +3474,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>id-amr:10059</t>
+          <t>id-amr:10058</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>layer</t>
+          <t>broiler</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3509,12 +3513,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>id-amr:10060</t>
+          <t>id-amr:10059</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>poultry</t>
+          <t>layer</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3548,19 +3552,19 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>id-amr:10061</t>
+          <t>id-amr:10060</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>insect</t>
+          <t>poultry</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>id-amr:10016</t>
+          <t>id-amr:10047</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -3587,12 +3591,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>id-amr:10062</t>
+          <t>id-amr:10061</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>wildlife</t>
+          <t>insect</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3626,12 +3630,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>id-amr:10063</t>
+          <t>id-amr:10062</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>companion animal</t>
+          <t>wildlife</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3665,19 +3669,19 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>id-amr:10065</t>
+          <t>id-amr:10063</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>fungus</t>
+          <t>companion animal</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>id-amr:10019</t>
+          <t>id-amr:10016</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -3704,19 +3708,19 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>id-amr:10066</t>
+          <t>id-amr:10065</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>fish (aquaculture)</t>
+          <t>fungus</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>id-amr:10016</t>
+          <t>id-amr:10019</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -3743,17 +3747,21 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>id-amr:10066</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>fish (aquaculture)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>id-amr:10016</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
@@ -3778,21 +3786,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>id-amr:10068</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>epidemiological data</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>covid19:10107</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -3817,19 +3821,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>id-amr:10069</t>
+          <t>id-amr:10068</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>diagnostics usage data</t>
+          <t>epidemiological data</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -3856,19 +3860,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>id-amr:10070</t>
+          <t>id-amr:10069</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">complete medical records </t>
+          <t>diagnostics usage data</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -3895,19 +3899,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>id-amr:10071</t>
+          <t>id-amr:10070</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>imaging data</t>
+          <t xml:space="preserve">complete medical records </t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -3934,19 +3938,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>id-amr:10072</t>
+          <t>id-amr:10071</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>data with respect to resistance</t>
+          <t>imaging data</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -3973,19 +3977,19 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>id-amr:10073</t>
+          <t>id-amr:10072</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>health status data</t>
+          <t>data with respect to resistance</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -4012,19 +4016,19 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>id-amr:10074</t>
+          <t>id-amr:10073</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>taxonomical data</t>
+          <t>health status data</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -4051,19 +4055,19 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>covid19:10125</t>
+          <t>id-amr:10074</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>survey data</t>
+          <t>taxonomical data</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -4090,19 +4094,19 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>covid19:10122</t>
+          <t>covid19:10125</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>economic data</t>
+          <t>survey data</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -4129,19 +4133,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>covid19:10114</t>
+          <t>covid19:10122</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>treatment data</t>
+          <t>economic data</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -4168,19 +4172,19 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>covid19:10127</t>
+          <t>covid19:10114</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>environmental data</t>
+          <t>treatment data</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -4207,19 +4211,19 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>covid19:10244</t>
+          <t>covid19:10127</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>genomics data</t>
+          <t>environmental data</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -4246,19 +4250,19 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>covid19:10112</t>
+          <t>covid19:10244</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>physiological data</t>
+          <t>genomics data</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -4285,19 +4289,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>covid19:10132</t>
+          <t>covid19:10112</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>audiovisual data</t>
+          <t>physiological data</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -4324,17 +4328,21 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>covid19:10145</t>
+          <t>covid19:10132</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>organism</t>
+          <t>audiovisual data</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>gen:10005</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -4359,12 +4367,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>organism</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4391,6 +4399,76 @@
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>id-amr:10084</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>health domain</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y104"/>
+  <dimension ref="A1:AA110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,8 @@
       <c r="W1" t="inlineStr"/>
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +496,8 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -533,6 +537,8 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -572,6 +578,8 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -611,6 +619,8 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -650,6 +660,8 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -689,6 +701,8 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -728,6 +742,8 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -767,6 +783,8 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -802,6 +820,8 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -837,6 +857,8 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -872,6 +894,8 @@
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -903,6 +927,8 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -938,6 +964,8 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -973,6 +1001,8 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1008,6 +1038,8 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1043,6 +1075,8 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1067,60 +1101,64 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>skos:broader(separator=",")</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>skos:broadMatch(separator=",")</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>skos:narrowMatch(separator=",")</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>skos:relatedMatch(separator=",")</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>dct:isReplacedBy</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1130,6 +1168,8 @@
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1150,12 +1190,12 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1173,6 +1213,8 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1208,6 +1250,8 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1222,18 +1266,18 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1251,6 +1295,8 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1265,12 +1311,12 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1290,6 +1336,8 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1304,12 +1352,12 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1329,6 +1377,8 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1343,12 +1393,12 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1368,6 +1418,8 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1382,12 +1434,12 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1407,6 +1459,8 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1421,12 +1475,12 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1446,6 +1500,8 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1460,12 +1516,12 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1485,6 +1541,8 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1499,12 +1557,12 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1524,6 +1582,8 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1538,12 +1598,12 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1563,6 +1623,8 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1577,12 +1639,12 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1602,6 +1664,8 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1616,12 +1680,12 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1641,6 +1705,8 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1655,12 +1721,12 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1680,6 +1746,8 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1694,12 +1762,12 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>gen:10001</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1719,6 +1787,8 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1728,17 +1798,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>One Health domain</t>
+          <t xml:space="preserve">One Health </t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
         <is>
           <t>id-amr:10084</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -1758,6 +1828,8 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1767,17 +1839,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>human health</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>gen:10008</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1797,6 +1869,8 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1806,17 +1880,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>animal health</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>id-amr:10084, gen:10008</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1836,6 +1910,8 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1850,11 +1926,7 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>id-amr:10084</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1875,6 +1947,8 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1884,17 +1958,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>plant health</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
         <is>
           <t>id-amr:10084</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -1914,11 +1988,13 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>id-amr:10019</t>
+          <t>gen:10024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1928,12 +2004,12 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>id-amr:10014, gen:10008</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -1953,11 +2029,13 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>id-amr:10020</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1967,11 +2045,7 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>id-amr:10014</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -1992,6 +2066,8 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2027,6 +2103,8 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2041,12 +2119,12 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>gen:10003</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2066,6 +2144,8 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2080,12 +2160,12 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>gen:10003</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2105,6 +2185,8 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2119,12 +2201,12 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>gen:10003</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2144,6 +2226,8 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2158,12 +2242,12 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
         <is>
           <t>gen:10003</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -2183,6 +2267,8 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2197,12 +2283,12 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>gen:10003</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2222,6 +2308,8 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2236,12 +2324,12 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>gen:10003</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2261,6 +2349,8 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2296,6 +2386,8 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2310,12 +2402,12 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -2335,6 +2427,8 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2349,12 +2443,12 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2374,6 +2468,8 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2388,12 +2484,12 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2413,6 +2509,8 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2427,12 +2525,12 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2452,6 +2550,8 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2466,12 +2566,12 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2491,6 +2591,8 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2505,12 +2607,12 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2530,6 +2632,8 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2544,12 +2648,12 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2569,6 +2673,8 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2583,12 +2689,12 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2608,6 +2714,8 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2622,12 +2730,12 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2647,6 +2755,8 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2661,12 +2771,12 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2686,6 +2796,8 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2700,12 +2812,12 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2725,6 +2837,8 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2739,12 +2853,12 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2764,6 +2878,8 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2782,12 +2898,12 @@
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2807,6 +2923,8 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2821,12 +2939,12 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
         <is>
           <t>gen:10004</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -2846,6 +2964,8 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2860,12 +2980,12 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>gen:10003</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>id-amr: 10017</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2885,6 +3005,8 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2899,12 +3021,12 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>gen:10003</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>id-amr: 10017</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2924,6 +3046,8 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2938,12 +3062,12 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>gen:10003</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>id-amr: 10017</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -2963,6 +3087,8 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2977,12 +3103,12 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>gen:10003</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>id-amr: 10017</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -3002,6 +3128,8 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3016,12 +3144,12 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>gen:10003</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>id-amr: 10017</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -3041,6 +3169,8 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3055,12 +3185,12 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>id-amr:10016</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>id-amr:10026</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -3080,6 +3210,8 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3094,12 +3226,12 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -3119,6 +3251,8 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3133,12 +3267,12 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -3158,6 +3292,8 @@
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3172,12 +3308,12 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -3197,6 +3333,8 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3211,12 +3349,12 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -3236,6 +3374,8 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3250,12 +3390,12 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -3275,6 +3415,8 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3289,12 +3431,12 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -3314,6 +3456,8 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3328,12 +3472,12 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -3353,6 +3497,8 @@
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3367,12 +3513,12 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -3392,6 +3538,8 @@
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3406,12 +3554,12 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -3431,6 +3579,8 @@
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3445,12 +3595,12 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -3470,6 +3620,8 @@
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3484,12 +3636,12 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -3509,6 +3661,8 @@
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3523,12 +3677,12 @@
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -3548,6 +3702,8 @@
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3562,12 +3718,12 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
         <is>
           <t>id-amr:10047</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -3587,6 +3743,8 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3601,12 +3759,12 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>id-amr:10016</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>id-amr:10026</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3626,6 +3784,8 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3640,12 +3800,12 @@
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>id-amr:10016</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>id-amr:10026</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3665,6 +3825,8 @@
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3679,12 +3841,12 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>id-amr:10016</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>id-amr:10026</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -3704,6 +3866,8 @@
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3718,12 +3882,12 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>id-amr:10019</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -3743,6 +3907,8 @@
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3757,12 +3923,12 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>id-amr:10016</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>id-amr:10026</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -3782,6 +3948,8 @@
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3817,6 +3985,8 @@
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3831,12 +4001,12 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
@@ -3856,6 +4026,8 @@
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3870,12 +4042,12 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -3895,6 +4067,8 @@
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3909,12 +4083,12 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3934,6 +4108,8 @@
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3948,12 +4124,12 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
@@ -3973,6 +4149,8 @@
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3987,12 +4165,12 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -4012,6 +4190,8 @@
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4026,12 +4206,12 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
@@ -4051,6 +4231,8 @@
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4065,12 +4247,12 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -4090,6 +4272,8 @@
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4104,12 +4288,12 @@
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -4129,6 +4313,8 @@
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4143,12 +4329,12 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -4168,6 +4354,8 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4182,12 +4370,12 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -4207,6 +4395,8 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4221,12 +4411,12 @@
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -4246,6 +4436,8 @@
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4260,12 +4452,12 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -4285,6 +4477,8 @@
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4299,12 +4493,12 @@
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -4324,6 +4518,8 @@
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4338,12 +4534,12 @@
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
         <is>
           <t>gen:10005</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
@@ -4363,6 +4559,8 @@
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4398,6 +4596,8 @@
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4433,6 +4633,8 @@
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4468,6 +4670,274 @@
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>id-amr:10026</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>covid19:10151</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>bacteria</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>covid19:10150</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>virus</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>gen:10011</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>macromolecule</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>gen:10007</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>id-amr:10085</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>gen:10011</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>id-amr:10086</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>antibody</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>gen:10011</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1847,7 +1847,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>id-amr:10084</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1888,7 +1888,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>id-amr:10084, gen:10008</t>
+          <t>id-amr:10084</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2983,7 +2983,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>id-amr: 10017</t>
+          <t>id-amr:10017</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3024,7 +3024,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>id-amr: 10017</t>
+          <t>id-amr:10017</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3065,7 +3065,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>id-amr: 10017</t>
+          <t>id-amr:10017</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3106,7 +3106,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>id-amr: 10017</t>
+          <t>id-amr:10017</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3147,7 +3147,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>id-amr: 10017</t>
+          <t>id-amr:10017</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -3188,7 +3188,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>id-amr:10026</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3762,7 +3762,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>id-amr:10026</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -3803,7 +3803,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>id-amr:10026</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -3844,7 +3844,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>id-amr:10026</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3926,7 +3926,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>id-amr:10026</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -4676,19 +4676,35 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>id-amr:10026</t>
+          <t>covid19:10151</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>bacteria</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4713,23 +4729,23 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>covid19:10151</t>
+          <t>covid19:10150</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>bacteria</t>
+          <t>virus</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
+          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4739,7 +4755,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4766,35 +4782,23 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>covid19:10150</t>
+          <t>gen:10011</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>virus</t>
+          <t>macromolecule</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>gen:10024</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
-        </is>
-      </c>
+          <t>gen:10007</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4819,12 +4823,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>gen:10011</t>
+          <t>id-amr:10085</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>macromolecule</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4832,7 +4836,7 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>gen:10007</t>
+          <t>gen:10011</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -4860,12 +4864,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>id-amr:10085</t>
+          <t>id-amr:10086</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>antibody</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4901,23 +4905,35 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>id-amr:10086</t>
+          <t>covid19:10152</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>antibody</t>
+          <t>parasite</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Any organism that has a close, symbiotic relationship with a separate, host organism.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28176</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>gen:10011</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCIT_C28176</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA110"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4955,6 +4955,47 @@
       <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="inlineStr"/>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>gen:10025</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>appropriate use antimicrobials</t>
+          <t>preparedness and response</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>stewardship</t>
+          <t>infection prevention</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>zoonotic disease</t>
+          <t>stewardship</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>non-foodborne zoonotic disease</t>
+          <t xml:space="preserve"> zoonotic disease</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>non-foodborne disease</t>
+          <t>vector-borne disease</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>foodborne disease</t>
+          <t>prion disease</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>other focus area</t>
+          <t>prudent use</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>plant health</t>
+          <t>environmental health</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -4996,6 +4996,47 @@
       <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr"/>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>id-amr:10087</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>outbreak</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>gen:10001</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5037,6 +5037,3229 @@
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>id-amr:10088</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>biopsy sample</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258415003</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>id-amr:10089</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>blood specimen</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119297000</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>id-amr:10090</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>bronchoalveolar lavage fluid sample</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258607008</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>id-amr:10091</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>cerebrospinal fluid sample</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258450006</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>id-amr:10092</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>respiratory sample</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258603007</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>id-amr:10093</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>skin swab</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258503004</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>id-amr:10094</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>specimen from geinital system</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119344008</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>id-amr:10095</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>specimen of unknown material</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119324002</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>id-amr:10096</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>stool specimen</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119339001</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>id-amr:10097</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>synovial fluid specimen</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119332005</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>id-amr:10098</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>urine specimen</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/122575003</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>id-amr:10099</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>body fluid sample</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/309051001</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/STY/T002</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>id-amr:10100</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>fruit</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/72511004</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>id-amr:10101</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>vegetable</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/22836000</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>id-amr:10102</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>crop</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/AGRO_00000325</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>id-amr:10103</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>cereal</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/23182003</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>id-amr:10104</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>oil seed</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>id-amr:10105</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>pulse - bean</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906074151720668</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>id-amr:10106</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>tree nut</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/442571000124108</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>detailed type of specimen</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>id-amr:10108</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>amniotic fluid</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/77012006</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>id-amr:10109</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ascites fluid</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>id-amr:10110</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>blood (whole)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>covid19:10154, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/420135007</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>id-amr:10111</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>bone</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/LNC/LA4277-5</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>id-amr:10112</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>bone marrow aspirate</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>id-amr:10113</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>breast milk</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/226789007</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>id-amr:10114</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>bronchoalveolar lavage</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/782971002</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>id-amr:10115</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>buccal cells</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>id-amr:10116</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>cells from fine needle aspirate</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>id-amr:10117</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>cells from laser capture microdissected tissue</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>id-amr:10118</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>cells from non blood specimen type (e.g. ascites, amniotic), non-viable</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>id-amr:10119</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>cells from non blood specimen type(e.g. ascites, amniotic), viable</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>id-amr:10120</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>cells from non-blood specimen type (e.g. dissociated tissue), non-viable</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>id-amr:10121</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>cells from non-blood specimen type (e.g. dissociated tissue), viable</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>id-amr:10122</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>cerebrospinal fluid</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/65216001</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>id-amr:10123</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>cord blood</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>covid19:10154, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/12499000</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>id-amr:10124</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>density-gradient-centrifugation-separated mononuclear cells, non viable</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>id-amr:10125</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>density-gradient-centrifugation-separated mononuclear cells, viable</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>id-amr:10126</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>dental pulp</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>id-amr:10127</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>disrupted tissue, non-viable</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>id-amr:10128</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>dried whole blood (e.g. guthrie cards)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>covid19:10154, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>id-amr:10129</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>enriched (physicochemically) circulating tumor cells</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>id-amr:10130</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>fresh cells from non-blood specimen type</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>id-amr:10131</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>fresh cells from non-blood specimen type (e.g. biopsy)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>id-amr:10132</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>hair</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>id-amr:10133</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>nails</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>id-amr:10134</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>nasal washing</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/433871000124101</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>id-amr:10135</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>non-density-gradient-centrifugation-separated buffy coat, non-viable</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>id-amr:10136</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>non-density-gradient-centrifugation-separated buffy coat, viable</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>id-amr:10137</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>placenta</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>id-amr:10138</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>plasma, double spun</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>covid19:10157, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>id-amr:10139</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>plasma, single spun</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>covid19:10157, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>id-amr:10140</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>pleural fluid</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/2778004</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>id-amr:10141</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>red blood cells</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>id-amr:10142</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>saliva</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>covid19:10158, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256897009</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>id-amr:10143</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>semen</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>covid19:10159, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>id-amr:10144</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>covid19:10160, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/67922002</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>id-amr:10145</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>solid tissue</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>id-amr:10146</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>sputum</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>covid19:10162, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/45710003</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>id-amr:10147</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>stool</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/706697005</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>id-amr:10148</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>synovial fluid</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/6085005</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>id-amr:10149</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>tears</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>covid19:10163, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/40431001</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>id-amr:10150</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>teeth</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>id-amr:10151</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">urine, 24 h </t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>covid19:10165, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr"/>
+      <c r="AA177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>id-amr:10152</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>urine, first morning</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>covid19:10165, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>id-amr:10153</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>urine, random</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>covid19:10165, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>id-amr:10154</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>urine, timed</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>covid19:10165, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
+      <c r="AA180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>id-amr:10155</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>isolation source</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>id-amr:10156</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>human material</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>id-amr:10155</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256645000</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>id-amr:10157</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>animal material</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>id-amr:10155</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256363008</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>id-amr:10158</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>specimen from environment</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>id-amr:10155</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/440229008</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>id-amr:10159</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>plant specimen</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>id-amr:10155</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119301009</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>id-amr:10160</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>id-amr:10155</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/8537005</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>id-amr:10161</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>biomedical device</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>id-amr:10155</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/63653004</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA187"/>
+  <dimension ref="A1:AA211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8260,6 +8260,986 @@
       <c r="Z187" t="inlineStr"/>
       <c r="AA187" t="inlineStr"/>
     </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>id-amr:10162</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>quality control information on biomaterials</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>id-amr:10163</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>pre-analytical data</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>id-amr: 10162</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>id-amr:10164</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>freeze thaw cycles</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>id-amr: 10162</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>id-amr:10165</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>concentration of molecular or cellurlar derivatives</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>id-amr: 10162</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>id-amr:10166</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>purity of nucleic acids</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>id-amr: 10162</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>id-amr:10167</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>amplifiablility of nucleic acids</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>id-amr: 10162</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>id-amr:10168</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>sample storage</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>id-amr: 10162</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>id-amr:10170</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>type of primary container</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>id-amr: 10163</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>id-amr:10171</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>pre-centrifugation conditions</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>id-amr: 10163</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>id-amr:10172</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>centrifugaion conditions</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>id-amr: 10163</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>id-amr:10173</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>post-centrifugation conditions</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>id-amr: 10163</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>id-amr:10174</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>long-term storage conditions</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>id-amr: 10163</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
+      <c r="Z199" t="inlineStr"/>
+      <c r="AA199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>id-amr:10175</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>storage format</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>id-amr: 10168</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>id-amr:10176</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>storage temperature</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>id-amr: 10168</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
+      <c r="Z201" t="inlineStr"/>
+      <c r="AA201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>id-amr:10177</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>derivative type</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>id-amr: 10168</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr"/>
+      <c r="Z202" t="inlineStr"/>
+      <c r="AA202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>id-amr:10178</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>freeze thaw cycles of sample storage</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>id-amr: 10168</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
+      <c r="Z203" t="inlineStr"/>
+      <c r="AA203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>id-amr:10179</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>information on microbiology biomaterial</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>id-amr: 10162</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr"/>
+      <c r="Z204" t="inlineStr"/>
+      <c r="AA204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>id-amr:10180</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">authenticity on microbiology biomaterial </t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>id-amr: 10179</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>id-amr:10181</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">purity on microbiology biomaterial </t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>id-amr: 10179</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>id-amr:10182</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">viability on microbiology biomaterial </t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>id-amr: 10179</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr"/>
+      <c r="Z207" t="inlineStr"/>
+      <c r="AA207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>id-amr:10183</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>once every year</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>id-amr: 10182</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>id-amr:10184</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>every 2 years</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>id-amr: 10182</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
+      <c r="Z209" t="inlineStr"/>
+      <c r="AA209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>id-amr:10185</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>every 5 years</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>id-amr: 10182</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr"/>
+      <c r="Z210" t="inlineStr"/>
+      <c r="AA210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>id-amr:10186</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>less frequently</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>id-amr: 10182</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr"/>
+      <c r="Z211" t="inlineStr"/>
+      <c r="AA211" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8313,7 +8313,7 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>id-amr: 10162</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -8354,7 +8354,7 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>id-amr: 10162</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
@@ -8395,7 +8395,7 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>id-amr: 10162</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
@@ -8436,7 +8436,7 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>id-amr: 10162</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
@@ -8477,7 +8477,7 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>id-amr: 10162</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -8518,7 +8518,7 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>id-amr: 10162</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -8559,7 +8559,7 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>id-amr: 10163</t>
+          <t>id-amr:10163</t>
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
@@ -8600,7 +8600,7 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>id-amr: 10163</t>
+          <t>id-amr:10163</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
@@ -8641,7 +8641,7 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>id-amr: 10163</t>
+          <t>id-amr:10163</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
@@ -8682,7 +8682,7 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>id-amr: 10163</t>
+          <t>id-amr:10163</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
@@ -8723,7 +8723,7 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>id-amr: 10163</t>
+          <t>id-amr:10163</t>
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
@@ -8764,7 +8764,7 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>id-amr: 10168</t>
+          <t>id-amr:10168</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -8805,7 +8805,7 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>id-amr: 10168</t>
+          <t>id-amr:10168</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
@@ -8846,7 +8846,7 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>id-amr: 10168</t>
+          <t>id-amr:10168</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -8887,7 +8887,7 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>id-amr: 10168</t>
+          <t>id-amr:10168</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -8928,7 +8928,7 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>id-amr: 10162</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
@@ -8969,7 +8969,7 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>id-amr: 10179</t>
+          <t>id-amr:10179</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
@@ -9010,7 +9010,7 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>id-amr: 10179</t>
+          <t>id-amr:10179</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -9051,7 +9051,7 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>id-amr: 10179</t>
+          <t>id-amr:10179</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -9092,7 +9092,7 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>id-amr: 10182</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -9133,7 +9133,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>id-amr: 10182</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -9174,7 +9174,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>id-amr: 10182</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -9215,7 +9215,7 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>id-amr: 10182</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA211"/>
+  <dimension ref="A1:AA212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> zoonotic disease</t>
+          <t>zoonotic disease</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>cells from non blood specimen type(e.g. ascites, amniotic), viable</t>
+          <t>cells from non blood specimen type (e.g. ascites, amniotic), viable</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -9240,6 +9240,47 @@
       <c r="Z211" t="inlineStr"/>
       <c r="AA211" t="inlineStr"/>
     </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>id-amr:10187</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>integrity of nucleic acids</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>id-amr:10162</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr"/>
+      <c r="Z212" t="inlineStr"/>
+      <c r="AA212" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA212"/>
+  <dimension ref="A1:AA213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5580,7 +5580,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10098</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5634,7 +5634,7 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10098</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5679,7 +5679,7 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10098</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -9281,6 +9281,47 @@
       <c r="Z212" t="inlineStr"/>
       <c r="AA212" t="inlineStr"/>
     </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>id-amr:10188</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>food specimen</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>id-amr:10155</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr"/>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr"/>
+      <c r="Z213" t="inlineStr"/>
+      <c r="AA213" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA213"/>
+  <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4004,7 +4004,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -4045,7 +4045,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -4086,7 +4086,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -4127,7 +4127,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10132</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -4168,7 +4168,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -4209,7 +4209,7 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10109</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -4373,7 +4373,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -4455,7 +4455,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -4496,7 +4496,7 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -8313,7 +8313,7 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>id-amr:10162</t>
+          <t>id-amr:10162, gen:10005</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -9322,6 +9322,826 @@
       <c r="Z213" t="inlineStr"/>
       <c r="AA213" t="inlineStr"/>
     </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>covid19:10109</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>health record data</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>covid19:10108</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr"/>
+      <c r="Z214" t="inlineStr"/>
+      <c r="AA214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>id-amr:10190</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>physiological - biochemical measurements</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>covid19:10112</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr"/>
+      <c r="Z215" t="inlineStr"/>
+      <c r="AA215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>id-amr:10191</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>sequencing - genotyping data</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>covid19:10244</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr"/>
+      <c r="Z216" t="inlineStr"/>
+      <c r="AA216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>id-amr:10192</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>clinical records</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>covid19:10108</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
+      <c r="Y217" t="inlineStr"/>
+      <c r="Z217" t="inlineStr"/>
+      <c r="AA217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>id-amr:10193</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>follow-up records</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>covid19:10108</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr"/>
+      <c r="Z218" t="inlineStr"/>
+      <c r="AA218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>id-amr:10194</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">monitoring data </t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>covid19:10108</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr"/>
+      <c r="Z219" t="inlineStr"/>
+      <c r="AA219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>id-amr:10195</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>surveillance data</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>covid19:10108</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr"/>
+      <c r="Z220" t="inlineStr"/>
+      <c r="AA220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>id-amr:10196</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>patient ethnicity data</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>covid19:10262</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr"/>
+      <c r="Z221" t="inlineStr"/>
+      <c r="AA221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>id-amr:10197</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>quality data</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>gen:10005</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
+      <c r="Y222" t="inlineStr"/>
+      <c r="Z222" t="inlineStr"/>
+      <c r="AA222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>id-amr:10198</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">experimental data </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>gen:10005</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr"/>
+      <c r="Z223" t="inlineStr"/>
+      <c r="AA223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>id-amr:10199</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>biospecimen processing</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>gen:10013</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr"/>
+      <c r="Z224" t="inlineStr"/>
+      <c r="AA224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>id-amr:10200</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>data analysis</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>gen:10013</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr"/>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>id-amr:10201</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>data integration</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>gen:10013</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr"/>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>id-amr:10202</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>digital imaging</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>gen:10013</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr"/>
+      <c r="Z227" t="inlineStr"/>
+      <c r="AA227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>id-amr:10203</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>FAIRification service</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>gen:10013</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr"/>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>id-amr:10204</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>providing reference materials</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>gen:10013</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr"/>
+      <c r="Z229" t="inlineStr"/>
+      <c r="AA229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>id-amr:10205</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>quality control</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>gen:10013</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr"/>
+      <c r="Z230" t="inlineStr"/>
+      <c r="AA230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>id-amr:10206</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>regulatory</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>gen:10013</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr"/>
+      <c r="Z231" t="inlineStr"/>
+      <c r="AA231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>id-amr:10207</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>gen:10013</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr"/>
+      <c r="Z232" t="inlineStr"/>
+      <c r="AA232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>id-amr:10208</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>gen:10013</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr"/>
+      <c r="Z233" t="inlineStr"/>
+      <c r="AA233" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA233"/>
+  <dimension ref="A1:AA234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10142,6 +10142,47 @@
       <c r="Z233" t="inlineStr"/>
       <c r="AA233" t="inlineStr"/>
     </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>covid19:10108</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>health data</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>gen:10005</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr"/>
+      <c r="Z234" t="inlineStr"/>
+      <c r="AA234" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA234"/>
+  <dimension ref="A1:AA235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10183,6 +10183,47 @@
       <c r="Z234" t="inlineStr"/>
       <c r="AA234" t="inlineStr"/>
     </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>id-amr:10221</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>personal information data</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>gen:10005</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="inlineStr"/>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
+      <c r="Y235" t="inlineStr"/>
+      <c r="Z235" t="inlineStr"/>
+      <c r="AA235" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA235"/>
+  <dimension ref="A1:AA236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3721,7 +3721,7 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>id-amr:10047</t>
+          <t>covid19:10025</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>fish (aquaculture)</t>
+          <t>aquaculture</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>id-amr:10221</t>
+          <t>covid19:10262</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -10224,6 +10224,47 @@
       <c r="Z235" t="inlineStr"/>
       <c r="AA235" t="inlineStr"/>
     </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>id-amr:10209</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>national registries data</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>gen:10005</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="inlineStr"/>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
+      <c r="R236" t="inlineStr"/>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="inlineStr"/>
+      <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
+      <c r="Y236" t="inlineStr"/>
+      <c r="Z236" t="inlineStr"/>
+      <c r="AA236" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -3721,7 +3721,7 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>covid19:10025</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -5724,7 +5724,7 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10098</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5769,7 +5769,7 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10098</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5814,7 +5814,7 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10098</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -5855,7 +5855,7 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10098</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5900,7 +5900,7 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10098</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA236"/>
+  <dimension ref="A1:AA232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8751,12 +8751,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>id-amr:10175</t>
+          <t>id-amr:10179</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>storage format</t>
+          <t>information on microbiology biomaterial</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8764,7 +8764,7 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>id-amr:10168</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -8792,12 +8792,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>id-amr:10176</t>
+          <t>id-amr:10180</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>storage temperature</t>
+          <t xml:space="preserve">authenticity on microbiology biomaterial </t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8805,7 +8805,7 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>id-amr:10168</t>
+          <t>id-amr:10179</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
@@ -8833,12 +8833,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>id-amr:10177</t>
+          <t>id-amr:10181</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>derivative type</t>
+          <t xml:space="preserve">purity on microbiology biomaterial </t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8846,7 +8846,7 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>id-amr:10168</t>
+          <t>id-amr:10179</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -8874,12 +8874,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>id-amr:10178</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>freeze thaw cycles of sample storage</t>
+          <t xml:space="preserve">viability on microbiology biomaterial </t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8887,7 +8887,7 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>id-amr:10168</t>
+          <t>id-amr:10179</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -8915,12 +8915,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>id-amr:10179</t>
+          <t>id-amr:10183</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>information on microbiology biomaterial</t>
+          <t>once every year</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8928,7 +8928,7 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>id-amr:10162</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
@@ -8956,12 +8956,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>id-amr:10180</t>
+          <t>id-amr:10184</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve">authenticity on microbiology biomaterial </t>
+          <t>every 2 years</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8969,7 +8969,7 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>id-amr:10179</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
@@ -8997,12 +8997,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>id-amr:10181</t>
+          <t>id-amr:10185</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve">purity on microbiology biomaterial </t>
+          <t>every 5 years</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -9010,7 +9010,7 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>id-amr:10179</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -9038,12 +9038,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>id-amr:10186</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve">viability on microbiology biomaterial </t>
+          <t>less frequently</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -9051,7 +9051,7 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>id-amr:10179</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -9079,12 +9079,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>id-amr:10183</t>
+          <t>id-amr:10187</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>once every year</t>
+          <t>integrity of nucleic acids</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -9092,7 +9092,7 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -9120,12 +9120,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>id-amr:10184</t>
+          <t>id-amr:10188</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>every 2 years</t>
+          <t>food specimen</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -9133,7 +9133,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>id-amr:10155</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -9161,12 +9161,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>id-amr:10185</t>
+          <t>covid19:10109</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>every 5 years</t>
+          <t>health record data</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9174,7 +9174,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -9202,12 +9202,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>id-amr:10186</t>
+          <t>id-amr:10190</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>less frequently</t>
+          <t>physiological - biochemical measurements</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9215,7 +9215,7 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>covid19:10112</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -9243,12 +9243,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>id-amr:10187</t>
+          <t>id-amr:10191</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>integrity of nucleic acids</t>
+          <t>sequencing - genotyping data</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9256,7 +9256,7 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>id-amr:10162</t>
+          <t>covid19:10244</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
@@ -9284,12 +9284,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>id-amr:10188</t>
+          <t>id-amr:10192</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>food specimen</t>
+          <t>clinical records</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9297,7 +9297,7 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>id-amr:10155</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -9325,12 +9325,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>covid19:10109</t>
+          <t>id-amr:10193</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>health record data</t>
+          <t>follow-up records</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9366,12 +9366,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>id-amr:10190</t>
+          <t>id-amr:10194</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>physiological - biochemical measurements</t>
+          <t xml:space="preserve">monitoring data </t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9379,7 +9379,7 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>covid19:10112</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
@@ -9407,12 +9407,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>id-amr:10191</t>
+          <t>id-amr:10195</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>sequencing - genotyping data</t>
+          <t>surveillance data</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9420,7 +9420,7 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>covid19:10244</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
@@ -9448,12 +9448,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>id-amr:10192</t>
+          <t>id-amr:10196</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>clinical records</t>
+          <t>patient ethnicity data</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9461,7 +9461,7 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>covid19:10262</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
@@ -9489,12 +9489,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>id-amr:10193</t>
+          <t>id-amr:10197</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>follow-up records</t>
+          <t>quality data</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -9502,7 +9502,7 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
@@ -9530,12 +9530,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>id-amr:10194</t>
+          <t>id-amr:10198</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve">monitoring data </t>
+          <t xml:space="preserve">experimental data </t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -9543,7 +9543,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -9571,12 +9571,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>id-amr:10195</t>
+          <t>id-amr:10199</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>surveillance data</t>
+          <t>biospecimen processing</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -9584,7 +9584,7 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
@@ -9612,12 +9612,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>id-amr:10196</t>
+          <t>id-amr:10200</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>patient ethnicity data</t>
+          <t>data analysis</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>covid19:10262</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
@@ -9653,12 +9653,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>id-amr:10197</t>
+          <t>id-amr:10201</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>quality data</t>
+          <t>data integration</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -9666,7 +9666,7 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
@@ -9694,12 +9694,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>id-amr:10198</t>
+          <t>id-amr:10202</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve">experimental data </t>
+          <t>digital imaging</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9707,7 +9707,7 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
@@ -9735,12 +9735,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>id-amr:10199</t>
+          <t>id-amr:10203</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>biospecimen processing</t>
+          <t>FAIRification service</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9776,12 +9776,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>id-amr:10200</t>
+          <t>id-amr:10204</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>data analysis</t>
+          <t>providing reference materials</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9817,12 +9817,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>id-amr:10201</t>
+          <t>id-amr:10205</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>data integration</t>
+          <t>quality control</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9858,12 +9858,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>id-amr:10202</t>
+          <t>id-amr:10206</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>digital imaging</t>
+          <t>regulatory</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9899,12 +9899,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>id-amr:10203</t>
+          <t>id-amr:10207</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FAIRification service</t>
+          <t>training</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9940,12 +9940,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>id-amr:10204</t>
+          <t>id-amr:10208</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>providing reference materials</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9981,12 +9981,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>id-amr:10205</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>quality control</t>
+          <t>health data</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9994,7 +9994,7 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>gen:10013</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
@@ -10022,12 +10022,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>id-amr:10206</t>
+          <t>covid19:10262</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>regulatory</t>
+          <t>personal information data</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -10035,7 +10035,7 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>gen:10013</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
@@ -10063,12 +10063,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>id-amr:10207</t>
+          <t>id-amr:10209</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>national registries data</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -10076,7 +10076,7 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>gen:10013</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
@@ -10101,170 +10101,6 @@
       <c r="Z232" t="inlineStr"/>
       <c r="AA232" t="inlineStr"/>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>id-amr:10208</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>gen:10013</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
-      <c r="N233" t="inlineStr"/>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="inlineStr"/>
-      <c r="T233" t="inlineStr"/>
-      <c r="U233" t="inlineStr"/>
-      <c r="V233" t="inlineStr"/>
-      <c r="W233" t="inlineStr"/>
-      <c r="X233" t="inlineStr"/>
-      <c r="Y233" t="inlineStr"/>
-      <c r="Z233" t="inlineStr"/>
-      <c r="AA233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>covid19:10108</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>health data</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>gen:10005</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="inlineStr"/>
-      <c r="T234" t="inlineStr"/>
-      <c r="U234" t="inlineStr"/>
-      <c r="V234" t="inlineStr"/>
-      <c r="W234" t="inlineStr"/>
-      <c r="X234" t="inlineStr"/>
-      <c r="Y234" t="inlineStr"/>
-      <c r="Z234" t="inlineStr"/>
-      <c r="AA234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>covid19:10262</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>personal information data</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>gen:10005</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
-      <c r="N235" t="inlineStr"/>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="inlineStr"/>
-      <c r="T235" t="inlineStr"/>
-      <c r="U235" t="inlineStr"/>
-      <c r="V235" t="inlineStr"/>
-      <c r="W235" t="inlineStr"/>
-      <c r="X235" t="inlineStr"/>
-      <c r="Y235" t="inlineStr"/>
-      <c r="Z235" t="inlineStr"/>
-      <c r="AA235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>id-amr:10209</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>national registries data</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>gen:10005</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr"/>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="inlineStr"/>
-      <c r="T236" t="inlineStr"/>
-      <c r="U236" t="inlineStr"/>
-      <c r="V236" t="inlineStr"/>
-      <c r="W236" t="inlineStr"/>
-      <c r="X236" t="inlineStr"/>
-      <c r="Y236" t="inlineStr"/>
-      <c r="Z236" t="inlineStr"/>
-      <c r="AA236" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA232"/>
+  <dimension ref="A1:AA272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>information on microbiology biomaterial</t>
+          <t>information on microbiological material</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve">authenticity on microbiology biomaterial </t>
+          <t xml:space="preserve">authenticity of microbiological material </t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve">purity on microbiology biomaterial </t>
+          <t xml:space="preserve">purity of microbiological material </t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve">viability on microbiology biomaterial </t>
+          <t xml:space="preserve">viability of microbiological material </t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>every 2 years</t>
+          <t>every two years</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -9002,7 +9002,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>every 5 years</t>
+          <t>every five years</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>physiological - biochemical measurements</t>
+          <t>physiological - biochemical measurement</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -10101,6 +10101,1622 @@
       <c r="Z232" t="inlineStr"/>
       <c r="AA232" t="inlineStr"/>
     </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>organisation level</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr"/>
+      <c r="Z233" t="inlineStr"/>
+      <c r="AA233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>id-amr:10211</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>university faculty</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr"/>
+      <c r="Z234" t="inlineStr"/>
+      <c r="AA234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>id-amr:10212</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>university hospital</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="inlineStr"/>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
+      <c r="Y235" t="inlineStr"/>
+      <c r="Z235" t="inlineStr"/>
+      <c r="AA235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>id-amr:10213</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">laboratory </t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="inlineStr"/>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
+      <c r="R236" t="inlineStr"/>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="inlineStr"/>
+      <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
+      <c r="Y236" t="inlineStr"/>
+      <c r="Z236" t="inlineStr"/>
+      <c r="AA236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>id-amr:10214</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>research group</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="inlineStr"/>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
+      <c r="R237" t="inlineStr"/>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="inlineStr"/>
+      <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr"/>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr"/>
+      <c r="Y237" t="inlineStr"/>
+      <c r="Z237" t="inlineStr"/>
+      <c r="AA237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>id-amr:10215</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>specific research project</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
+      <c r="R238" t="inlineStr"/>
+      <c r="S238" t="inlineStr"/>
+      <c r="T238" t="inlineStr"/>
+      <c r="U238" t="inlineStr"/>
+      <c r="V238" t="inlineStr"/>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr"/>
+      <c r="Y238" t="inlineStr"/>
+      <c r="Z238" t="inlineStr"/>
+      <c r="AA238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>id-amr:10216</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>reference centre</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="inlineStr"/>
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr"/>
+      <c r="R239" t="inlineStr"/>
+      <c r="S239" t="inlineStr"/>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr"/>
+      <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
+      <c r="Y239" t="inlineStr"/>
+      <c r="Z239" t="inlineStr"/>
+      <c r="AA239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>id-amr:10217</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>company department</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="inlineStr"/>
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr"/>
+      <c r="R240" t="inlineStr"/>
+      <c r="S240" t="inlineStr"/>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr"/>
+      <c r="V240" t="inlineStr"/>
+      <c r="W240" t="inlineStr"/>
+      <c r="X240" t="inlineStr"/>
+      <c r="Y240" t="inlineStr"/>
+      <c r="Z240" t="inlineStr"/>
+      <c r="AA240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>id-amr:10218</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>public funding</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
+      <c r="R241" t="inlineStr"/>
+      <c r="S241" t="inlineStr"/>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr"/>
+      <c r="V241" t="inlineStr"/>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr"/>
+      <c r="Y241" t="inlineStr"/>
+      <c r="Z241" t="inlineStr"/>
+      <c r="AA241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>id-amr:10219</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>private funding</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
+      <c r="R242" t="inlineStr"/>
+      <c r="S242" t="inlineStr"/>
+      <c r="T242" t="inlineStr"/>
+      <c r="U242" t="inlineStr"/>
+      <c r="V242" t="inlineStr"/>
+      <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr"/>
+      <c r="Y242" t="inlineStr"/>
+      <c r="Z242" t="inlineStr"/>
+      <c r="AA242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>id-amr:10220</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>charity of philanthropic funding</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="inlineStr"/>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
+      <c r="R243" t="inlineStr"/>
+      <c r="S243" t="inlineStr"/>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr"/>
+      <c r="Y243" t="inlineStr"/>
+      <c r="Z243" t="inlineStr"/>
+      <c r="AA243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>id-amr:10221</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>collection status</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="inlineStr"/>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="inlineStr"/>
+      <c r="S244" t="inlineStr"/>
+      <c r="T244" t="inlineStr"/>
+      <c r="U244" t="inlineStr"/>
+      <c r="V244" t="inlineStr"/>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr"/>
+      <c r="Y244" t="inlineStr"/>
+      <c r="Z244" t="inlineStr"/>
+      <c r="AA244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>id-amr:10222</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>not started</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>id-amr:10221</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="inlineStr"/>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
+      <c r="Y245" t="inlineStr"/>
+      <c r="Z245" t="inlineStr"/>
+      <c r="AA245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>id-amr:10223</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>in progress</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>id-amr:10221</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="inlineStr"/>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
+      <c r="R246" t="inlineStr"/>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr"/>
+      <c r="Y246" t="inlineStr"/>
+      <c r="Z246" t="inlineStr"/>
+      <c r="AA246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>id-amr:10224</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>id-amr:10221</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="inlineStr"/>
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
+      <c r="R247" t="inlineStr"/>
+      <c r="S247" t="inlineStr"/>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr"/>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr"/>
+      <c r="Y247" t="inlineStr"/>
+      <c r="Z247" t="inlineStr"/>
+      <c r="AA247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>id-amr:10225</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>consent restriction</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
+      <c r="R248" t="inlineStr"/>
+      <c r="S248" t="inlineStr"/>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr"/>
+      <c r="W248" t="inlineStr"/>
+      <c r="X248" t="inlineStr"/>
+      <c r="Y248" t="inlineStr"/>
+      <c r="Z248" t="inlineStr"/>
+      <c r="AA248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>id-amr:10226</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>commerial resctriction</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>id-amr:10225</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="inlineStr"/>
+      <c r="S249" t="inlineStr"/>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr"/>
+      <c r="Y249" t="inlineStr"/>
+      <c r="Z249" t="inlineStr"/>
+      <c r="AA249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>id-amr:10227</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>disease area restriction</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>id-amr:10225</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="inlineStr"/>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
+      <c r="R250" t="inlineStr"/>
+      <c r="S250" t="inlineStr"/>
+      <c r="T250" t="inlineStr"/>
+      <c r="U250" t="inlineStr"/>
+      <c r="V250" t="inlineStr"/>
+      <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr"/>
+      <c r="Y250" t="inlineStr"/>
+      <c r="Z250" t="inlineStr"/>
+      <c r="AA250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>id-amr:10228</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>export restriction</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>id-amr:10225</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="inlineStr"/>
+      <c r="S251" t="inlineStr"/>
+      <c r="T251" t="inlineStr"/>
+      <c r="U251" t="inlineStr"/>
+      <c r="V251" t="inlineStr"/>
+      <c r="W251" t="inlineStr"/>
+      <c r="X251" t="inlineStr"/>
+      <c r="Y251" t="inlineStr"/>
+      <c r="Z251" t="inlineStr"/>
+      <c r="AA251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>id-amr:10229</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>genetic analysis restriction</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>id-amr:10225</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr"/>
+      <c r="S252" t="inlineStr"/>
+      <c r="T252" t="inlineStr"/>
+      <c r="U252" t="inlineStr"/>
+      <c r="V252" t="inlineStr"/>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr"/>
+      <c r="Y252" t="inlineStr"/>
+      <c r="Z252" t="inlineStr"/>
+      <c r="AA252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>id-amr:10230</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>human genetic analysis restriction</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>id-amr:10225</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
+      <c r="R253" t="inlineStr"/>
+      <c r="S253" t="inlineStr"/>
+      <c r="T253" t="inlineStr"/>
+      <c r="U253" t="inlineStr"/>
+      <c r="V253" t="inlineStr"/>
+      <c r="W253" t="inlineStr"/>
+      <c r="X253" t="inlineStr"/>
+      <c r="Y253" t="inlineStr"/>
+      <c r="Z253" t="inlineStr"/>
+      <c r="AA253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>id-amr:10231</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>project specific restriction</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>id-amr:10225</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="inlineStr"/>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr"/>
+      <c r="R254" t="inlineStr"/>
+      <c r="S254" t="inlineStr"/>
+      <c r="T254" t="inlineStr"/>
+      <c r="U254" t="inlineStr"/>
+      <c r="V254" t="inlineStr"/>
+      <c r="W254" t="inlineStr"/>
+      <c r="X254" t="inlineStr"/>
+      <c r="Y254" t="inlineStr"/>
+      <c r="Z254" t="inlineStr"/>
+      <c r="AA254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>id-amr:10232</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>scope of use restriction</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>id-amr:10225</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="inlineStr"/>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
+      <c r="R255" t="inlineStr"/>
+      <c r="S255" t="inlineStr"/>
+      <c r="T255" t="inlineStr"/>
+      <c r="U255" t="inlineStr"/>
+      <c r="V255" t="inlineStr"/>
+      <c r="W255" t="inlineStr"/>
+      <c r="X255" t="inlineStr"/>
+      <c r="Y255" t="inlineStr"/>
+      <c r="Z255" t="inlineStr"/>
+      <c r="AA255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>id-amr:10233</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>access condition</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="inlineStr"/>
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr"/>
+      <c r="R256" t="inlineStr"/>
+      <c r="S256" t="inlineStr"/>
+      <c r="T256" t="inlineStr"/>
+      <c r="U256" t="inlineStr"/>
+      <c r="V256" t="inlineStr"/>
+      <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr"/>
+      <c r="Y256" t="inlineStr"/>
+      <c r="Z256" t="inlineStr"/>
+      <c r="AA256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>id-amr:10234</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>open to everyone</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>id-amr:10233</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="inlineStr"/>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr"/>
+      <c r="R257" t="inlineStr"/>
+      <c r="S257" t="inlineStr"/>
+      <c r="T257" t="inlineStr"/>
+      <c r="U257" t="inlineStr"/>
+      <c r="V257" t="inlineStr"/>
+      <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr"/>
+      <c r="Y257" t="inlineStr"/>
+      <c r="Z257" t="inlineStr"/>
+      <c r="AA257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>id-amr:10235</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>open to applicants</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>id-amr:10233</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr"/>
+      <c r="V258" t="inlineStr"/>
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr"/>
+      <c r="Y258" t="inlineStr"/>
+      <c r="Z258" t="inlineStr"/>
+      <c r="AA258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>id-amr:10236</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>open in response to specific calls</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>id-amr:10233</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
+      <c r="S259" t="inlineStr"/>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr"/>
+      <c r="V259" t="inlineStr"/>
+      <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr"/>
+      <c r="Y259" t="inlineStr"/>
+      <c r="Z259" t="inlineStr"/>
+      <c r="AA259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>id-amr:10237</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>open only through collaboration</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>id-amr:10233</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="inlineStr"/>
+      <c r="O260" t="inlineStr"/>
+      <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr"/>
+      <c r="R260" t="inlineStr"/>
+      <c r="S260" t="inlineStr"/>
+      <c r="T260" t="inlineStr"/>
+      <c r="U260" t="inlineStr"/>
+      <c r="V260" t="inlineStr"/>
+      <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr"/>
+      <c r="Y260" t="inlineStr"/>
+      <c r="Z260" t="inlineStr"/>
+      <c r="AA260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>id-amr:10238</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>data access only</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>id-amr:10233</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="inlineStr"/>
+      <c r="O261" t="inlineStr"/>
+      <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr"/>
+      <c r="R261" t="inlineStr"/>
+      <c r="S261" t="inlineStr"/>
+      <c r="T261" t="inlineStr"/>
+      <c r="U261" t="inlineStr"/>
+      <c r="V261" t="inlineStr"/>
+      <c r="W261" t="inlineStr"/>
+      <c r="X261" t="inlineStr"/>
+      <c r="Y261" t="inlineStr"/>
+      <c r="Z261" t="inlineStr"/>
+      <c r="AA261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>id-amr:10239</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>access restricted at present</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>id-amr:10233</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr"/>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr"/>
+      <c r="S262" t="inlineStr"/>
+      <c r="T262" t="inlineStr"/>
+      <c r="U262" t="inlineStr"/>
+      <c r="V262" t="inlineStr"/>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr"/>
+      <c r="Y262" t="inlineStr"/>
+      <c r="Z262" t="inlineStr"/>
+      <c r="AA262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>id-amr:10240</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>closed to access</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>id-amr:10233</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="inlineStr"/>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr"/>
+      <c r="R263" t="inlineStr"/>
+      <c r="S263" t="inlineStr"/>
+      <c r="T263" t="inlineStr"/>
+      <c r="U263" t="inlineStr"/>
+      <c r="V263" t="inlineStr"/>
+      <c r="W263" t="inlineStr"/>
+      <c r="X263" t="inlineStr"/>
+      <c r="Y263" t="inlineStr"/>
+      <c r="Z263" t="inlineStr"/>
+      <c r="AA263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>id-amr:10241</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>time frame</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="inlineStr"/>
+      <c r="O264" t="inlineStr"/>
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr"/>
+      <c r="R264" t="inlineStr"/>
+      <c r="S264" t="inlineStr"/>
+      <c r="T264" t="inlineStr"/>
+      <c r="U264" t="inlineStr"/>
+      <c r="V264" t="inlineStr"/>
+      <c r="W264" t="inlineStr"/>
+      <c r="X264" t="inlineStr"/>
+      <c r="Y264" t="inlineStr"/>
+      <c r="Z264" t="inlineStr"/>
+      <c r="AA264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>id-amr:10242</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>up to one month</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>id-amr:10241</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="inlineStr"/>
+      <c r="O265" t="inlineStr"/>
+      <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr"/>
+      <c r="R265" t="inlineStr"/>
+      <c r="S265" t="inlineStr"/>
+      <c r="T265" t="inlineStr"/>
+      <c r="U265" t="inlineStr"/>
+      <c r="V265" t="inlineStr"/>
+      <c r="W265" t="inlineStr"/>
+      <c r="X265" t="inlineStr"/>
+      <c r="Y265" t="inlineStr"/>
+      <c r="Z265" t="inlineStr"/>
+      <c r="AA265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>id-amr:10243</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>up to one year</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>id-amr:10241</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="inlineStr"/>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
+      <c r="R266" t="inlineStr"/>
+      <c r="S266" t="inlineStr"/>
+      <c r="T266" t="inlineStr"/>
+      <c r="U266" t="inlineStr"/>
+      <c r="V266" t="inlineStr"/>
+      <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr"/>
+      <c r="Y266" t="inlineStr"/>
+      <c r="Z266" t="inlineStr"/>
+      <c r="AA266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>id-amr:10244</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>up to three years</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>id-amr:10241</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
+      <c r="T267" t="inlineStr"/>
+      <c r="U267" t="inlineStr"/>
+      <c r="V267" t="inlineStr"/>
+      <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr"/>
+      <c r="Y267" t="inlineStr"/>
+      <c r="Z267" t="inlineStr"/>
+      <c r="AA267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>id-amr:10245</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>three years or longer</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>id-amr:10241</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" t="inlineStr"/>
+      <c r="V268" t="inlineStr"/>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
+      <c r="Y268" t="inlineStr"/>
+      <c r="Z268" t="inlineStr"/>
+      <c r="AA268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>id-amr:10246</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>data quality</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr"/>
+      <c r="S269" t="inlineStr"/>
+      <c r="T269" t="inlineStr"/>
+      <c r="U269" t="inlineStr"/>
+      <c r="V269" t="inlineStr"/>
+      <c r="W269" t="inlineStr"/>
+      <c r="X269" t="inlineStr"/>
+      <c r="Y269" t="inlineStr"/>
+      <c r="Z269" t="inlineStr"/>
+      <c r="AA269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>id-amr:10247</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>data plausibility</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>id-amr:10246</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="inlineStr"/>
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr"/>
+      <c r="R270" t="inlineStr"/>
+      <c r="S270" t="inlineStr"/>
+      <c r="T270" t="inlineStr"/>
+      <c r="U270" t="inlineStr"/>
+      <c r="V270" t="inlineStr"/>
+      <c r="W270" t="inlineStr"/>
+      <c r="X270" t="inlineStr"/>
+      <c r="Y270" t="inlineStr"/>
+      <c r="Z270" t="inlineStr"/>
+      <c r="AA270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>id-amr:10248</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>data completeness</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>id-amr:10246</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="inlineStr"/>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr"/>
+      <c r="R271" t="inlineStr"/>
+      <c r="S271" t="inlineStr"/>
+      <c r="T271" t="inlineStr"/>
+      <c r="U271" t="inlineStr"/>
+      <c r="V271" t="inlineStr"/>
+      <c r="W271" t="inlineStr"/>
+      <c r="X271" t="inlineStr"/>
+      <c r="Y271" t="inlineStr"/>
+      <c r="Z271" t="inlineStr"/>
+      <c r="AA271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>id-amr:10249</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>data accuracy</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>id-amr:10246</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="inlineStr"/>
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
+      <c r="R272" t="inlineStr"/>
+      <c r="S272" t="inlineStr"/>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr"/>
+      <c r="V272" t="inlineStr"/>
+      <c r="W272" t="inlineStr"/>
+      <c r="X272" t="inlineStr"/>
+      <c r="Y272" t="inlineStr"/>
+      <c r="Z272" t="inlineStr"/>
+      <c r="AA272" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Deprecated</t>
+          <t>deprecated</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>quality control information on biomaterials</t>
+          <t>quality control information about biomaterials</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>information on microbiological material</t>
+          <t>information about microbiological material</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA272"/>
+  <dimension ref="A1:AA275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11717,6 +11717,129 @@
       <c r="Z272" t="inlineStr"/>
       <c r="AA272" t="inlineStr"/>
     </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>id-amr:10250</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>sensitive information</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>covid19:10262</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="inlineStr"/>
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr"/>
+      <c r="R273" t="inlineStr"/>
+      <c r="S273" t="inlineStr"/>
+      <c r="T273" t="inlineStr"/>
+      <c r="U273" t="inlineStr"/>
+      <c r="V273" t="inlineStr"/>
+      <c r="W273" t="inlineStr"/>
+      <c r="X273" t="inlineStr"/>
+      <c r="Y273" t="inlineStr"/>
+      <c r="Z273" t="inlineStr"/>
+      <c r="AA273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>id-amr:10251</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>yes, and it is GDPR compliant</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>id-amr:10250</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="inlineStr"/>
+      <c r="O274" t="inlineStr"/>
+      <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr"/>
+      <c r="R274" t="inlineStr"/>
+      <c r="S274" t="inlineStr"/>
+      <c r="T274" t="inlineStr"/>
+      <c r="U274" t="inlineStr"/>
+      <c r="V274" t="inlineStr"/>
+      <c r="W274" t="inlineStr"/>
+      <c r="X274" t="inlineStr"/>
+      <c r="Y274" t="inlineStr"/>
+      <c r="Z274" t="inlineStr"/>
+      <c r="AA274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>id-amr:10252</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>yes, but it is not (yet) GDPR compliant</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>id-amr:10250</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="inlineStr"/>
+      <c r="O275" t="inlineStr"/>
+      <c r="P275" t="inlineStr"/>
+      <c r="Q275" t="inlineStr"/>
+      <c r="R275" t="inlineStr"/>
+      <c r="S275" t="inlineStr"/>
+      <c r="T275" t="inlineStr"/>
+      <c r="U275" t="inlineStr"/>
+      <c r="V275" t="inlineStr"/>
+      <c r="W275" t="inlineStr"/>
+      <c r="X275" t="inlineStr"/>
+      <c r="Y275" t="inlineStr"/>
+      <c r="Z275" t="inlineStr"/>
+      <c r="AA275" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA275"/>
+  <dimension ref="A1:AA282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11840,6 +11840,293 @@
       <c r="Z275" t="inlineStr"/>
       <c r="AA275" t="inlineStr"/>
     </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>gen:10097</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>plant disease</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>gen:10026</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="inlineStr"/>
+      <c r="O276" t="inlineStr"/>
+      <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr"/>
+      <c r="R276" t="inlineStr"/>
+      <c r="S276" t="inlineStr"/>
+      <c r="T276" t="inlineStr"/>
+      <c r="U276" t="inlineStr"/>
+      <c r="V276" t="inlineStr"/>
+      <c r="W276" t="inlineStr"/>
+      <c r="X276" t="inlineStr"/>
+      <c r="Y276" t="inlineStr"/>
+      <c r="Z276" t="inlineStr"/>
+      <c r="AA276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>id-amr:10253</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>viral disease</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>gen:10097</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr"/>
+      <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr"/>
+      <c r="S277" t="inlineStr"/>
+      <c r="T277" t="inlineStr"/>
+      <c r="U277" t="inlineStr"/>
+      <c r="V277" t="inlineStr"/>
+      <c r="W277" t="inlineStr"/>
+      <c r="X277" t="inlineStr"/>
+      <c r="Y277" t="inlineStr"/>
+      <c r="Z277" t="inlineStr"/>
+      <c r="AA277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>id-amr:10254</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>bacterial disease</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>gen:10097</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
+      <c r="R278" t="inlineStr"/>
+      <c r="S278" t="inlineStr"/>
+      <c r="T278" t="inlineStr"/>
+      <c r="U278" t="inlineStr"/>
+      <c r="V278" t="inlineStr"/>
+      <c r="W278" t="inlineStr"/>
+      <c r="X278" t="inlineStr"/>
+      <c r="Y278" t="inlineStr"/>
+      <c r="Z278" t="inlineStr"/>
+      <c r="AA278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>id-amr:10255</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>fungal disease</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>gen:10097</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr"/>
+      <c r="P279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr"/>
+      <c r="R279" t="inlineStr"/>
+      <c r="S279" t="inlineStr"/>
+      <c r="T279" t="inlineStr"/>
+      <c r="U279" t="inlineStr"/>
+      <c r="V279" t="inlineStr"/>
+      <c r="W279" t="inlineStr"/>
+      <c r="X279" t="inlineStr"/>
+      <c r="Y279" t="inlineStr"/>
+      <c r="Z279" t="inlineStr"/>
+      <c r="AA279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>id-amr:10256</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>nematode disease</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>gen:10097</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="inlineStr"/>
+      <c r="O280" t="inlineStr"/>
+      <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr"/>
+      <c r="R280" t="inlineStr"/>
+      <c r="S280" t="inlineStr"/>
+      <c r="T280" t="inlineStr"/>
+      <c r="U280" t="inlineStr"/>
+      <c r="V280" t="inlineStr"/>
+      <c r="W280" t="inlineStr"/>
+      <c r="X280" t="inlineStr"/>
+      <c r="Y280" t="inlineStr"/>
+      <c r="Z280" t="inlineStr"/>
+      <c r="AA280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>id-amr:10257</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>phytoplasma disease</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>gen:10097</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="inlineStr"/>
+      <c r="O281" t="inlineStr"/>
+      <c r="P281" t="inlineStr"/>
+      <c r="Q281" t="inlineStr"/>
+      <c r="R281" t="inlineStr"/>
+      <c r="S281" t="inlineStr"/>
+      <c r="T281" t="inlineStr"/>
+      <c r="U281" t="inlineStr"/>
+      <c r="V281" t="inlineStr"/>
+      <c r="W281" t="inlineStr"/>
+      <c r="X281" t="inlineStr"/>
+      <c r="Y281" t="inlineStr"/>
+      <c r="Z281" t="inlineStr"/>
+      <c r="AA281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>id-amr:10258</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>disease caused by insects</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>gen:10097</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="inlineStr"/>
+      <c r="O282" t="inlineStr"/>
+      <c r="P282" t="inlineStr"/>
+      <c r="Q282" t="inlineStr"/>
+      <c r="R282" t="inlineStr"/>
+      <c r="S282" t="inlineStr"/>
+      <c r="T282" t="inlineStr"/>
+      <c r="U282" t="inlineStr"/>
+      <c r="V282" t="inlineStr"/>
+      <c r="W282" t="inlineStr"/>
+      <c r="X282" t="inlineStr"/>
+      <c r="Y282" t="inlineStr"/>
+      <c r="Z282" t="inlineStr"/>
+      <c r="AA282" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA282"/>
+  <dimension ref="A1:AA283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10441,7 +10441,7 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>id-amr:10210</t>
+          <t>id-amr:10259</t>
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
@@ -10482,7 +10482,7 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>id-amr:10210</t>
+          <t>id-amr:10259</t>
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
@@ -10523,7 +10523,7 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>id-amr:10210</t>
+          <t>id-amr:10259</t>
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
@@ -12127,6 +12127,43 @@
       <c r="Z282" t="inlineStr"/>
       <c r="AA282" t="inlineStr"/>
     </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>id-amr:10259</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>funding type</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr"/>
+      <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr"/>
+      <c r="R283" t="inlineStr"/>
+      <c r="S283" t="inlineStr"/>
+      <c r="T283" t="inlineStr"/>
+      <c r="U283" t="inlineStr"/>
+      <c r="V283" t="inlineStr"/>
+      <c r="W283" t="inlineStr"/>
+      <c r="X283" t="inlineStr"/>
+      <c r="Y283" t="inlineStr"/>
+      <c r="Z283" t="inlineStr"/>
+      <c r="AA283" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA283"/>
+  <dimension ref="A1:AA282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2035,12 +2035,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gen:10025</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>disease</t>
+          <t>temporal scope</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2072,18 +2072,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>gen:10003</t>
+          <t>id-amr:10021</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>temporal scope</t>
+          <t>diagnostic phase</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>gen:10003</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2109,12 +2113,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>id-amr:10021</t>
+          <t>id-amr:10022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>diagnostic phase</t>
+          <t>screening phase</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2150,12 +2154,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>id-amr:10022</t>
+          <t>id-amr:10023</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>screening phase</t>
+          <t>intervention phase</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2191,12 +2195,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>id-amr:10023</t>
+          <t>id-amr:10024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>intervention phase</t>
+          <t>disease phase</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2232,12 +2236,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>id-amr:10024</t>
+          <t>id-amr:10025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>disease phase</t>
+          <t>free-from-disease phase</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2273,12 +2277,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>id-amr:10025</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>free-from-disease phase</t>
+          <t>aftercare phase</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2314,22 +2318,18 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>aftercare phase</t>
+          <t>population group</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>gen:10003</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2355,18 +2355,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>gen:10004</t>
+          <t>id-amr:10028</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>population group</t>
+          <t>subject with an infection</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>gen:10004</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -2392,12 +2396,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>id-amr:10028</t>
+          <t>id-amr:10029</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>subject with an infection</t>
+          <t>subject with a bacterial infection</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2433,12 +2437,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>id-amr:10029</t>
+          <t>id-amr:10030</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>subject with a bacterial infection</t>
+          <t>subject with a viral infection</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2474,12 +2478,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>id-amr:10030</t>
+          <t>id-amr:10031</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>subject with a viral infection</t>
+          <t>subject with an unknown infection</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2515,12 +2519,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>id-amr:10031</t>
+          <t>id-amr:10032</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>subject with an unknown infection</t>
+          <t>subject with risk of infection</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2556,12 +2560,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>id-amr:10032</t>
+          <t>id-amr:10033</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>subject with risk of infection</t>
+          <t>subject with risk of bacterial infection</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2597,12 +2601,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>id-amr:10033</t>
+          <t>id-amr:10034</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>subject with risk of bacterial infection</t>
+          <t>subject with risk of viral infection</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2638,12 +2642,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>id-amr:10034</t>
+          <t>id-amr:10035</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>subject with risk of viral infection</t>
+          <t>subject having antimicrobial treatment</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2679,12 +2683,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>id-amr:10035</t>
+          <t>id-amr:10036</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>subject having antimicrobial treatment</t>
+          <t>subject having vaccination</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2720,12 +2724,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>id-amr:10036</t>
+          <t>id-amr:10037</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>subject having vaccination</t>
+          <t>subject having other treatments</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2761,12 +2765,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>id-amr:10037</t>
+          <t>id-amr:10038</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>subject having other treatments</t>
+          <t>subject by age</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2802,12 +2806,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>id-amr:10038</t>
+          <t>id-amr:10039</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>subject by age</t>
+          <t>subject by sex</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2843,15 +2847,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>id-amr:10039</t>
+          <t>id-amr:10040</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>subject by sex</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>infectious agent</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>pathogen</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
@@ -2884,19 +2892,15 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>id-amr:10040</t>
+          <t>id-amr:10041</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>infectious agent</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>pathogen</t>
-        </is>
-      </c>
+          <t>infectious agent having antimicrobial resistance</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
@@ -2929,12 +2933,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>id-amr:10041</t>
+          <t>id-amr:10042</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>infectious agent having antimicrobial resistance</t>
+          <t>soil</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2942,7 +2946,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>gen:10004</t>
+          <t>id-amr:10017</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2970,12 +2974,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>id-amr:10042</t>
+          <t>id-amr:10043</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>soil-waste</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3011,12 +3015,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>id-amr:10043</t>
+          <t>id-amr:10044</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>soil-waste</t>
+          <t>wastewater</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3052,12 +3056,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>id-amr:10044</t>
+          <t>id-amr:10045</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>wastewater</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3093,12 +3097,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>id-amr:10045</t>
+          <t>id-amr:10046</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>air</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3134,12 +3138,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>id-amr:10046</t>
+          <t>id-amr:10047</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>livestock</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3147,7 +3151,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>id-amr:10017</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3175,12 +3179,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>id-amr:10047</t>
+          <t>id-amr:10048</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>livestock</t>
+          <t>diary cattle</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3188,7 +3192,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>gen:10025</t>
+          <t>id-amr:10047</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3216,12 +3220,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>id-amr:10048</t>
+          <t>id-amr:10049</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>diary cattle</t>
+          <t>veal calve</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3257,12 +3261,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>id-amr:10049</t>
+          <t>id-amr:10050</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>veal calve</t>
+          <t>beef cattle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3298,12 +3302,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>id-amr:10050</t>
+          <t>id-amr:10051</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>beef cattle</t>
+          <t>buffalo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3339,12 +3343,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>id-amr:10051</t>
+          <t>id-amr:10052</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>buffalo</t>
+          <t>sheep (wool)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3380,12 +3384,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>id-amr:10052</t>
+          <t>id-amr:10053</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sheep (wool)</t>
+          <t>sheep (milk)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3421,12 +3425,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>id-amr:10053</t>
+          <t>id-amr:10054</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sheep (milk)</t>
+          <t>goat (meat)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3462,12 +3466,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>id-amr:10054</t>
+          <t>id-amr:10055</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>goat (meat)</t>
+          <t>goat (milk)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3503,12 +3507,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>id-amr:10055</t>
+          <t>id-amr:10056</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>goat (milk)</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3544,12 +3548,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>id-amr:10056</t>
+          <t>id-amr:10057</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3585,12 +3589,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>id-amr:10057</t>
+          <t>id-amr:10058</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>pig</t>
+          <t>broiler</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3626,12 +3630,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>id-amr:10058</t>
+          <t>id-amr:10059</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>broiler</t>
+          <t>layer</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3667,12 +3671,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>id-amr:10059</t>
+          <t>id-amr:10060</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>layer</t>
+          <t>poultry</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3680,7 +3684,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>id-amr:10047</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -3708,12 +3712,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>id-amr:10060</t>
+          <t>id-amr:10061</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>poultry</t>
+          <t>insect</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3749,12 +3753,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>id-amr:10061</t>
+          <t>id-amr:10062</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>insect</t>
+          <t>wildlife</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3790,12 +3794,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>id-amr:10062</t>
+          <t>id-amr:10063</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>wildlife</t>
+          <t>companion animal</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3831,12 +3835,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>id-amr:10063</t>
+          <t>id-amr:10065</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>companion animal</t>
+          <t>fungus</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3844,7 +3848,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>gen:10025</t>
+          <t>gen:10024</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3872,12 +3876,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>id-amr:10065</t>
+          <t>id-amr:10066</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>fungus</t>
+          <t>aquaculture</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3885,7 +3889,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>gen:10024</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3913,22 +3917,18 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>id-amr:10066</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>aquaculture</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>gen:10025</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -3954,18 +3954,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>id-amr:10068</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>epidemiological data</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>covid19:10108</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
@@ -3991,12 +3995,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>id-amr:10068</t>
+          <t>id-amr:10069</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>epidemiological data</t>
+          <t>diagnostics usage data</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4032,12 +4036,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>id-amr:10069</t>
+          <t>id-amr:10070</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>diagnostics usage data</t>
+          <t xml:space="preserve">complete medical records </t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4073,12 +4077,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>id-amr:10070</t>
+          <t>id-amr:10071</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">complete medical records </t>
+          <t>imaging data</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4086,7 +4090,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>covid19:10132</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -4114,12 +4118,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>id-amr:10071</t>
+          <t>id-amr:10072</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>imaging data</t>
+          <t>data with respect to resistance</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4127,7 +4131,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>covid19:10132</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -4155,12 +4159,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>id-amr:10072</t>
+          <t>id-amr:10073</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>data with respect to resistance</t>
+          <t>health status data</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4168,7 +4172,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>covid19:10109</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -4196,12 +4200,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>id-amr:10073</t>
+          <t>id-amr:10074</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>health status data</t>
+          <t>taxonomical data</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4209,7 +4213,7 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>covid19:10109</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -4237,12 +4241,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>id-amr:10074</t>
+          <t>covid19:10125</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>taxonomical data</t>
+          <t>survey data</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4278,12 +4282,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>covid19:10125</t>
+          <t>covid19:10122</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>survey data</t>
+          <t>economic data</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4319,12 +4323,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>covid19:10122</t>
+          <t>covid19:10114</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>economic data</t>
+          <t>treatment data</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4332,7 +4336,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -4360,12 +4364,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>covid19:10114</t>
+          <t>covid19:10127</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>treatment data</t>
+          <t>environmental data</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4373,7 +4377,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -4401,12 +4405,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>covid19:10127</t>
+          <t>covid19:10244</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>environmental data</t>
+          <t>genomics data</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4414,7 +4418,7 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -4442,12 +4446,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>covid19:10244</t>
+          <t>covid19:10112</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>genomics data</t>
+          <t>physiological data</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4483,12 +4487,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>covid19:10112</t>
+          <t>covid19:10132</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>physiological data</t>
+          <t>audiovisual data</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4496,7 +4500,7 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -4524,22 +4528,18 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>covid19:10132</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>audiovisual data</t>
+          <t>organism</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>gen:10005</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
@@ -4565,12 +4565,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>organism</t>
+          <t>specimen</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4602,12 +4602,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>gen:10009</t>
+          <t>id-amr:10084</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>health domain</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4639,19 +4639,35 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>id-amr:10084</t>
+          <t>covid19:10151</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>health domain</t>
+          <t>bacteria</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4676,23 +4692,23 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>covid19:10151</t>
+          <t>covid19:10150</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>bacteria</t>
+          <t>virus</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
+          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4702,7 +4718,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4729,35 +4745,23 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>covid19:10150</t>
+          <t>gen:10011</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>virus</t>
+          <t>macromolecule</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>gen:10024</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
-        </is>
-      </c>
+          <t>gen:10007</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4782,12 +4786,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>gen:10011</t>
+          <t>id-amr:10085</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>macromolecule</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4795,7 +4799,7 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>gen:10007</t>
+          <t>gen:10011</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -4823,12 +4827,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>id-amr:10085</t>
+          <t>id-amr:10086</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>antibody</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4864,23 +4868,35 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>id-amr:10086</t>
+          <t>covid19:10152</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>antibody</t>
+          <t>parasite</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Any organism that has a close, symbiotic relationship with a separate, host organism.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28176</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>gen:10011</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCIT_C28176</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4905,35 +4921,23 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>covid19:10152</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>parasite</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Any organism that has a close, symbiotic relationship with a separate, host organism.</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28176</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>gen:10024</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/NCIT_C28176</t>
-        </is>
-      </c>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4958,12 +4962,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>gen:10025</t>
+          <t>id-amr:10087</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>outbreak</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4971,7 +4975,7 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -4999,12 +5003,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>id-amr:10087</t>
+          <t>id-amr:10088</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>outbreak</t>
+          <t>biopsy sample</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5012,10 +5016,14 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>gen:10001</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258415003</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -5040,12 +5048,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>id-amr:10088</t>
+          <t>id-amr:10089</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>biopsy sample</t>
+          <t>blood specimen</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5058,7 +5066,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258415003</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119297000</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -5085,12 +5093,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>id-amr:10089</t>
+          <t>id-amr:10090</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>blood specimen</t>
+          <t>bronchoalveolar lavage fluid sample</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5103,7 +5111,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119297000</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258607008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -5130,12 +5138,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>id-amr:10090</t>
+          <t>id-amr:10091</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>bronchoalveolar lavage fluid sample</t>
+          <t>cerebrospinal fluid sample</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5148,7 +5156,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258607008</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258450006</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -5175,12 +5183,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>id-amr:10091</t>
+          <t>id-amr:10092</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>cerebrospinal fluid sample</t>
+          <t>respiratory sample</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5193,7 +5201,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258450006</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258603007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -5220,12 +5228,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>id-amr:10092</t>
+          <t>id-amr:10093</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>respiratory sample</t>
+          <t>skin swab</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5238,7 +5246,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258603007</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258503004</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -5265,12 +5273,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>id-amr:10093</t>
+          <t>id-amr:10094</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>skin swab</t>
+          <t>specimen from geinital system</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5283,7 +5291,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258503004</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119344008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -5310,12 +5318,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>id-amr:10094</t>
+          <t>id-amr:10095</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>specimen from geinital system</t>
+          <t>specimen of unknown material</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5328,7 +5336,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119344008</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119324002</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -5355,12 +5363,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>id-amr:10095</t>
+          <t>id-amr:10096</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>specimen of unknown material</t>
+          <t>stool specimen</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5373,7 +5381,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119324002</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119339001</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -5400,12 +5408,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>id-amr:10096</t>
+          <t>id-amr:10097</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>stool specimen</t>
+          <t>synovial fluid specimen</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5418,7 +5426,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119339001</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119332005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -5445,12 +5453,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>id-amr:10097</t>
+          <t>id-amr:10098</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>synovial fluid specimen</t>
+          <t>urine specimen</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5463,7 +5471,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119332005</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/122575003</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -5490,12 +5498,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>id-amr:10098</t>
+          <t>id-amr:10099</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>urine specimen</t>
+          <t>body fluid sample</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5508,7 +5516,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/122575003</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/309051001</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -5535,25 +5543,21 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>id-amr:10099</t>
+          <t>gen:10098</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>body fluid sample</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>gen:10009</t>
-        </is>
-      </c>
+      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/309051001</t>
+          <t>http://purl.bioontology.org/ontology/STY/T002</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -5580,21 +5584,25 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>gen:10098</t>
+          <t>id-amr:10100</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>fruit</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>gen:10098</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/STY/T002</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/72511004</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -5621,12 +5629,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>id-amr:10100</t>
+          <t>id-amr:10101</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>vegetable</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5639,7 +5647,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/72511004</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/22836000</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -5666,12 +5674,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>id-amr:10101</t>
+          <t>id-amr:10102</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>vegetable</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5684,7 +5692,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/22836000</t>
+          <t>http://purl.obolibrary.org/obo/AGRO_00000325</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -5711,12 +5719,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>id-amr:10102</t>
+          <t>id-amr:10103</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>cereal</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5729,7 +5737,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/AGRO_00000325</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/23182003</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -5756,12 +5764,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>id-amr:10103</t>
+          <t>id-amr:10104</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>cereal</t>
+          <t>oil seed</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5772,11 +5780,7 @@
           <t>gen:10098</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/23182003</t>
-        </is>
-      </c>
+      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5801,12 +5805,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>id-amr:10104</t>
+          <t>id-amr:10105</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>oil seed</t>
+          <t>pulse - bean</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5817,7 +5821,11 @@
           <t>gen:10098</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906074151720668</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5842,12 +5850,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>id-amr:10105</t>
+          <t>id-amr:10106</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>pulse - bean</t>
+          <t>tree nut</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5860,7 +5868,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>http://purl.jp/bio/4/id/200906074151720668</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/442571000124108</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -5887,27 +5895,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>id-amr:10106</t>
+          <t>id-amr:10107</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>tree nut</t>
+          <t>detailed type of specimen</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>gen:10098</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/442571000124108</t>
-        </is>
-      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5932,19 +5932,27 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>id-amr:10108</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>detailed type of specimen</t>
+          <t>amniotic fluid</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/77012006</t>
+        </is>
+      </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5969,12 +5977,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>id-amr:10108</t>
+          <t>id-amr:10109</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>amniotic fluid</t>
+          <t>ascites fluid</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5985,11 +5993,7 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/77012006</t>
-        </is>
-      </c>
+      <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -6014,12 +6018,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>id-amr:10109</t>
+          <t>id-amr:10110</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ascites fluid</t>
+          <t>blood (whole)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -6027,10 +6031,14 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
+          <t>covid19:10154, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/420135007</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -6055,12 +6063,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>id-amr:10110</t>
+          <t>id-amr:10111</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>blood (whole)</t>
+          <t>bone</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -6068,12 +6076,12 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>covid19:10154, id-amr:10107</t>
+          <t>id-amr:10107</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/420135007</t>
+          <t>http://purl.bioontology.org/ontology/LNC/LA4277-5</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
@@ -6100,12 +6108,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>id-amr:10111</t>
+          <t>id-amr:10112</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>bone</t>
+          <t>bone marrow aspirate</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -6116,11 +6124,7 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/LNC/LA4277-5</t>
-        </is>
-      </c>
+      <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -6145,12 +6149,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>id-amr:10112</t>
+          <t>id-amr:10113</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>bone marrow aspirate</t>
+          <t>breast milk</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6161,7 +6165,11 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/226789007</t>
+        </is>
+      </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -6186,12 +6194,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>id-amr:10113</t>
+          <t>id-amr:10114</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>breast milk</t>
+          <t>bronchoalveolar lavage</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6204,7 +6212,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/226789007</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/782971002</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
@@ -6231,12 +6239,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>id-amr:10114</t>
+          <t>id-amr:10115</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>bronchoalveolar lavage</t>
+          <t>buccal cells</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6247,11 +6255,7 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/782971002</t>
-        </is>
-      </c>
+      <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -6276,12 +6280,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>id-amr:10115</t>
+          <t>id-amr:10116</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>buccal cells</t>
+          <t>cells from fine needle aspirate</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6317,12 +6321,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>id-amr:10116</t>
+          <t>id-amr:10117</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>cells from fine needle aspirate</t>
+          <t>cells from laser capture microdissected tissue</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6358,12 +6362,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>id-amr:10117</t>
+          <t>id-amr:10118</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>cells from laser capture microdissected tissue</t>
+          <t>cells from non blood specimen type (e.g. ascites, amniotic), non-viable</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6399,12 +6403,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>id-amr:10118</t>
+          <t>id-amr:10119</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>cells from non blood specimen type (e.g. ascites, amniotic), non-viable</t>
+          <t>cells from non blood specimen type (e.g. ascites, amniotic), viable</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6440,12 +6444,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>id-amr:10119</t>
+          <t>id-amr:10120</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>cells from non blood specimen type (e.g. ascites, amniotic), viable</t>
+          <t>cells from non-blood specimen type (e.g. dissociated tissue), non-viable</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6481,12 +6485,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>id-amr:10120</t>
+          <t>id-amr:10121</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>cells from non-blood specimen type (e.g. dissociated tissue), non-viable</t>
+          <t>cells from non-blood specimen type (e.g. dissociated tissue), viable</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6522,12 +6526,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>id-amr:10121</t>
+          <t>id-amr:10122</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>cells from non-blood specimen type (e.g. dissociated tissue), viable</t>
+          <t>cerebrospinal fluid</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6538,7 +6542,11 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/65216001</t>
+        </is>
+      </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6563,12 +6571,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>id-amr:10122</t>
+          <t>id-amr:10123</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>cerebrospinal fluid</t>
+          <t>cord blood</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6576,12 +6584,12 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>covid19:10154, id-amr:10107</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/65216001</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/12499000</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -6608,12 +6616,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>id-amr:10123</t>
+          <t>id-amr:10124</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>cord blood</t>
+          <t>density-gradient-centrifugation-separated mononuclear cells, non viable</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6621,14 +6629,10 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>covid19:10154, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/12499000</t>
-        </is>
-      </c>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6653,12 +6657,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>id-amr:10124</t>
+          <t>id-amr:10125</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>density-gradient-centrifugation-separated mononuclear cells, non viable</t>
+          <t>density-gradient-centrifugation-separated mononuclear cells, viable</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6694,12 +6698,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>id-amr:10125</t>
+          <t>id-amr:10126</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>density-gradient-centrifugation-separated mononuclear cells, viable</t>
+          <t>dental pulp</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6735,12 +6739,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>id-amr:10126</t>
+          <t>id-amr:10127</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>dental pulp</t>
+          <t>disrupted tissue, non-viable</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6776,12 +6780,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>id-amr:10127</t>
+          <t>id-amr:10128</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>disrupted tissue, non-viable</t>
+          <t>dried whole blood (e.g. guthrie cards)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6789,7 +6793,7 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>covid19:10154, id-amr:10107</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -6817,12 +6821,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>id-amr:10128</t>
+          <t>id-amr:10129</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>dried whole blood (e.g. guthrie cards)</t>
+          <t>enriched (physicochemically) circulating tumor cells</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6830,7 +6834,7 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>covid19:10154, id-amr:10107</t>
+          <t>id-amr:10107</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -6858,12 +6862,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>id-amr:10129</t>
+          <t>id-amr:10130</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>enriched (physicochemically) circulating tumor cells</t>
+          <t>fresh cells from non-blood specimen type</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6899,12 +6903,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>id-amr:10130</t>
+          <t>id-amr:10131</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>fresh cells from non-blood specimen type</t>
+          <t>fresh cells from non-blood specimen type (e.g. biopsy)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6940,12 +6944,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>id-amr:10131</t>
+          <t>id-amr:10132</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>fresh cells from non-blood specimen type (e.g. biopsy)</t>
+          <t>hair</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6981,12 +6985,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>id-amr:10132</t>
+          <t>id-amr:10133</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>hair</t>
+          <t>nails</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -7022,12 +7026,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>id-amr:10133</t>
+          <t>id-amr:10134</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>nails</t>
+          <t>nasal washing</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -7038,7 +7042,11 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/433871000124101</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -7063,12 +7071,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>id-amr:10134</t>
+          <t>id-amr:10135</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>nasal washing</t>
+          <t>non-density-gradient-centrifugation-separated buffy coat, non-viable</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -7079,11 +7087,7 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/433871000124101</t>
-        </is>
-      </c>
+      <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -7108,12 +7112,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>id-amr:10135</t>
+          <t>id-amr:10136</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>non-density-gradient-centrifugation-separated buffy coat, non-viable</t>
+          <t>non-density-gradient-centrifugation-separated buffy coat, viable</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -7149,12 +7153,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>id-amr:10136</t>
+          <t>id-amr:10137</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>non-density-gradient-centrifugation-separated buffy coat, viable</t>
+          <t>placenta</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7190,12 +7194,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>id-amr:10137</t>
+          <t>id-amr:10138</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>placenta</t>
+          <t>plasma, double spun</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7203,7 +7207,7 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>covid19:10157, id-amr:10107</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
@@ -7231,12 +7235,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>id-amr:10138</t>
+          <t>id-amr:10139</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>plasma, double spun</t>
+          <t>plasma, single spun</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7272,12 +7276,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>id-amr:10139</t>
+          <t>id-amr:10140</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>plasma, single spun</t>
+          <t>pleural fluid</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7285,10 +7289,14 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>covid19:10157, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/2778004</t>
+        </is>
+      </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -7313,12 +7321,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>id-amr:10140</t>
+          <t>id-amr:10141</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>pleural fluid</t>
+          <t>red blood cells</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7329,11 +7337,7 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/2778004</t>
-        </is>
-      </c>
+      <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7358,12 +7362,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>id-amr:10141</t>
+          <t>id-amr:10142</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>red blood cells</t>
+          <t>saliva</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7371,10 +7375,14 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
+          <t>covid19:10158, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256897009</t>
+        </is>
+      </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7399,12 +7407,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>id-amr:10142</t>
+          <t>id-amr:10143</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>saliva</t>
+          <t>semen</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -7412,14 +7420,10 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>covid19:10158, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256897009</t>
-        </is>
-      </c>
+          <t>covid19:10159, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -7444,12 +7448,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>id-amr:10143</t>
+          <t>id-amr:10144</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>semen</t>
+          <t>serum</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -7457,10 +7461,14 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>covid19:10159, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr"/>
+          <t>covid19:10160, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/67922002</t>
+        </is>
+      </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7485,12 +7493,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>id-amr:10144</t>
+          <t>id-amr:10145</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>serum</t>
+          <t>solid tissue</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -7498,14 +7506,10 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>covid19:10160, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/67922002</t>
-        </is>
-      </c>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7530,12 +7534,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>id-amr:10145</t>
+          <t>id-amr:10146</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>solid tissue</t>
+          <t>sputum</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7543,10 +7547,14 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr"/>
+          <t>covid19:10162, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/45710003</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7571,12 +7579,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>id-amr:10146</t>
+          <t>id-amr:10147</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>sputum</t>
+          <t>stool</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7584,12 +7592,12 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>covid19:10162, id-amr:10107</t>
+          <t>id-amr:10107</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/45710003</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/706697005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
@@ -7616,12 +7624,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>id-amr:10147</t>
+          <t>id-amr:10148</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>stool</t>
+          <t>synovial fluid</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7634,7 +7642,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/706697005</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/6085005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -7661,12 +7669,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>id-amr:10148</t>
+          <t>id-amr:10149</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>synovial fluid</t>
+          <t>tears</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7674,12 +7682,12 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>covid19:10163, id-amr:10107</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/6085005</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/40431001</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -7706,12 +7714,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>id-amr:10149</t>
+          <t>id-amr:10150</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>tears</t>
+          <t>teeth</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7719,14 +7727,10 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>covid19:10163, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/40431001</t>
-        </is>
-      </c>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7751,12 +7755,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>id-amr:10150</t>
+          <t>id-amr:10151</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>teeth</t>
+          <t xml:space="preserve">urine, 24 h </t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7764,7 +7768,7 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>covid19:10165, id-amr:10107</t>
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
@@ -7792,12 +7796,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>id-amr:10151</t>
+          <t>id-amr:10152</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve">urine, 24 h </t>
+          <t>urine, first morning</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7833,12 +7837,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>id-amr:10152</t>
+          <t>id-amr:10153</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>urine, first morning</t>
+          <t>urine, random</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7874,12 +7878,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>id-amr:10153</t>
+          <t>id-amr:10154</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>urine, random</t>
+          <t>urine, timed</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7915,22 +7919,18 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>id-amr:10154</t>
+          <t>id-amr:10155</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>urine, timed</t>
+          <t>isolation source</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>covid19:10165, id-amr:10107</t>
-        </is>
-      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
@@ -7956,19 +7956,27 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>id-amr:10155</t>
+          <t>id-amr:10156</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>isolation source</t>
+          <t>human material</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>id-amr:10155</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256645000</t>
+        </is>
+      </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7993,12 +8001,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>id-amr:10156</t>
+          <t>id-amr:10157</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>human material</t>
+          <t>animal material</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -8011,7 +8019,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256645000</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256363008</t>
         </is>
       </c>
       <c r="H182" t="inlineStr"/>
@@ -8038,12 +8046,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>id-amr:10157</t>
+          <t>id-amr:10158</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>animal material</t>
+          <t>specimen from environment</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -8056,7 +8064,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256363008</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/440229008</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
@@ -8083,12 +8091,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>id-amr:10158</t>
+          <t>id-amr:10159</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>specimen from environment</t>
+          <t>plant specimen</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -8101,7 +8109,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/440229008</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119301009</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
@@ -8128,12 +8136,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>id-amr:10159</t>
+          <t>id-amr:10160</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>plant specimen</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -8146,7 +8154,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119301009</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/8537005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -8173,12 +8181,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>id-amr:10160</t>
+          <t>id-amr:10161</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>biomedical device</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -8191,7 +8199,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/8537005</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/63653004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -8218,27 +8226,19 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>id-amr:10161</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>biomedical device</t>
+          <t>quality control information about biomaterials</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>id-amr:10155</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/63653004</t>
-        </is>
-      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -8263,18 +8263,22 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>id-amr:10162</t>
+          <t>id-amr:10163</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>quality control information about biomaterials</t>
+          <t>pre-analytical data</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>id-amr:10162, gen:10005</t>
+        </is>
+      </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
@@ -8300,12 +8304,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>id-amr:10163</t>
+          <t>id-amr:10164</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>pre-analytical data</t>
+          <t>freeze thaw cycles</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -8313,7 +8317,7 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>id-amr:10162, gen:10005</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -8341,12 +8345,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>id-amr:10164</t>
+          <t>id-amr:10165</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>freeze thaw cycles</t>
+          <t>concentration of molecular or cellurlar derivatives</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8382,12 +8386,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>id-amr:10165</t>
+          <t>id-amr:10166</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>concentration of molecular or cellurlar derivatives</t>
+          <t>purity of nucleic acids</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8423,12 +8427,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>id-amr:10166</t>
+          <t>id-amr:10167</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>purity of nucleic acids</t>
+          <t>amplifiablility of nucleic acids</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8464,12 +8468,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>id-amr:10167</t>
+          <t>id-amr:10168</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>amplifiablility of nucleic acids</t>
+          <t>sample storage</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8505,12 +8509,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>id-amr:10168</t>
+          <t>id-amr:10170</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>sample storage</t>
+          <t>type of primary container</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8518,7 +8522,7 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>id-amr:10162</t>
+          <t>id-amr:10163</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -8546,12 +8550,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>id-amr:10170</t>
+          <t>id-amr:10171</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>type of primary container</t>
+          <t>pre-centrifugation conditions</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8587,12 +8591,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>id-amr:10171</t>
+          <t>id-amr:10172</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>pre-centrifugation conditions</t>
+          <t>centrifugaion conditions</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8628,12 +8632,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>id-amr:10172</t>
+          <t>id-amr:10173</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>centrifugaion conditions</t>
+          <t>post-centrifugation conditions</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -8669,12 +8673,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>id-amr:10173</t>
+          <t>id-amr:10174</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>post-centrifugation conditions</t>
+          <t>long-term storage conditions</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -8710,12 +8714,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>id-amr:10174</t>
+          <t>id-amr:10179</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>long-term storage conditions</t>
+          <t>information about microbiological material</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -8723,7 +8727,7 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>id-amr:10163</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
@@ -8751,12 +8755,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>id-amr:10179</t>
+          <t>id-amr:10180</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>information about microbiological material</t>
+          <t xml:space="preserve">authenticity of microbiological material </t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8764,7 +8768,7 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>id-amr:10162</t>
+          <t>id-amr:10179</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -8792,12 +8796,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>id-amr:10180</t>
+          <t>id-amr:10181</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve">authenticity of microbiological material </t>
+          <t xml:space="preserve">purity of microbiological material </t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8833,12 +8837,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>id-amr:10181</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve">purity of microbiological material </t>
+          <t xml:space="preserve">viability of microbiological material </t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8874,12 +8878,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>id-amr:10183</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve">viability of microbiological material </t>
+          <t>once every year</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8887,7 +8891,7 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>id-amr:10179</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -8915,12 +8919,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>id-amr:10183</t>
+          <t>id-amr:10184</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>once every year</t>
+          <t>every two years</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8956,12 +8960,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>id-amr:10184</t>
+          <t>id-amr:10185</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>every two years</t>
+          <t>every five years</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8997,12 +9001,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>id-amr:10185</t>
+          <t>id-amr:10186</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>every five years</t>
+          <t>less frequently</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -9038,12 +9042,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>id-amr:10186</t>
+          <t>id-amr:10187</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>less frequently</t>
+          <t>integrity of nucleic acids</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -9051,7 +9055,7 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -9079,12 +9083,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>id-amr:10187</t>
+          <t>id-amr:10188</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>integrity of nucleic acids</t>
+          <t>food specimen</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -9092,7 +9096,7 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>id-amr:10162</t>
+          <t>id-amr:10155</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -9120,12 +9124,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>id-amr:10188</t>
+          <t>covid19:10109</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>food specimen</t>
+          <t>health record data</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -9133,7 +9137,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>id-amr:10155</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -9161,12 +9165,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>covid19:10109</t>
+          <t>id-amr:10190</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>health record data</t>
+          <t>physiological - biochemical measurement</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9174,7 +9178,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>covid19:10112</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -9202,12 +9206,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>id-amr:10190</t>
+          <t>id-amr:10191</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>physiological - biochemical measurement</t>
+          <t>sequencing - genotyping data</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9215,7 +9219,7 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>covid19:10112</t>
+          <t>covid19:10244</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -9243,12 +9247,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>id-amr:10191</t>
+          <t>id-amr:10192</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>sequencing - genotyping data</t>
+          <t>clinical records</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9256,7 +9260,7 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>covid19:10244</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
@@ -9284,12 +9288,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>id-amr:10192</t>
+          <t>id-amr:10193</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>clinical records</t>
+          <t>follow-up records</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9325,12 +9329,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>id-amr:10193</t>
+          <t>id-amr:10194</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>follow-up records</t>
+          <t xml:space="preserve">monitoring data </t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9366,12 +9370,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>id-amr:10194</t>
+          <t>id-amr:10195</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve">monitoring data </t>
+          <t>surveillance data</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9407,12 +9411,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>id-amr:10195</t>
+          <t>id-amr:10196</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>surveillance data</t>
+          <t>patient ethnicity data</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9420,7 +9424,7 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>covid19:10262</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
@@ -9448,12 +9452,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>id-amr:10196</t>
+          <t>id-amr:10197</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>patient ethnicity data</t>
+          <t>quality data</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9461,7 +9465,7 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>covid19:10262</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
@@ -9489,12 +9493,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>id-amr:10197</t>
+          <t>id-amr:10198</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>quality data</t>
+          <t xml:space="preserve">experimental data </t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -9530,12 +9534,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>id-amr:10198</t>
+          <t>id-amr:10199</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve">experimental data </t>
+          <t>biospecimen processing</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -9543,7 +9547,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -9571,12 +9575,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>id-amr:10199</t>
+          <t>id-amr:10200</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>biospecimen processing</t>
+          <t>data analysis</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -9612,12 +9616,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>id-amr:10200</t>
+          <t>id-amr:10201</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>data analysis</t>
+          <t>data integration</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -9653,12 +9657,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>id-amr:10201</t>
+          <t>id-amr:10202</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>data integration</t>
+          <t>digital imaging</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -9694,12 +9698,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>id-amr:10202</t>
+          <t>id-amr:10203</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>digital imaging</t>
+          <t>FAIRification service</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9735,12 +9739,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>id-amr:10203</t>
+          <t>id-amr:10204</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FAIRification service</t>
+          <t>providing reference materials</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9776,12 +9780,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>id-amr:10204</t>
+          <t>id-amr:10205</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>providing reference materials</t>
+          <t>quality control</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9817,12 +9821,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>id-amr:10205</t>
+          <t>id-amr:10206</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>quality control</t>
+          <t>regulatory</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9858,12 +9862,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>id-amr:10206</t>
+          <t>id-amr:10207</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>regulatory</t>
+          <t>training</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9899,12 +9903,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>id-amr:10207</t>
+          <t>id-amr:10208</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9940,12 +9944,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>id-amr:10208</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>health data</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9953,7 +9957,7 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>gen:10013</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
@@ -9981,12 +9985,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>covid19:10262</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>health data</t>
+          <t>personal information data</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -10022,12 +10026,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>covid19:10262</t>
+          <t>id-amr:10209</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>personal information data</t>
+          <t>national registries data</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -10063,22 +10067,18 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>id-amr:10209</t>
+          <t>id-amr:10210</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>national registries data</t>
+          <t>organisation level</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>gen:10005</t>
-        </is>
-      </c>
+      <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -10104,18 +10104,22 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>id-amr:10210</t>
+          <t>id-amr:10211</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>organisation level</t>
+          <t>university faculty</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
@@ -10141,12 +10145,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>id-amr:10211</t>
+          <t>id-amr:10212</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>university faculty</t>
+          <t>university hospital</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -10182,12 +10186,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>id-amr:10212</t>
+          <t>id-amr:10213</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>university hospital</t>
+          <t xml:space="preserve">laboratory </t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -10223,12 +10227,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>id-amr:10213</t>
+          <t>id-amr:10214</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve">laboratory </t>
+          <t>research group</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -10264,12 +10268,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>id-amr:10214</t>
+          <t>id-amr:10215</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>research group</t>
+          <t>specific research project</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -10305,12 +10309,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>id-amr:10215</t>
+          <t>id-amr:10216</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>specific research project</t>
+          <t>reference centre</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -10346,12 +10350,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>id-amr:10216</t>
+          <t>id-amr:10217</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>reference centre</t>
+          <t>company department</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -10387,12 +10391,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>id-amr:10217</t>
+          <t>id-amr:10218</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>company department</t>
+          <t>public funding</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -10400,7 +10404,7 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>id-amr:10210</t>
+          <t>id-amr:10259</t>
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
@@ -10428,12 +10432,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>id-amr:10218</t>
+          <t>id-amr:10219</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>public funding</t>
+          <t>private funding</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -10469,12 +10473,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>id-amr:10219</t>
+          <t>id-amr:10220</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>private funding</t>
+          <t>charity of philanthropic funding</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -10510,22 +10514,18 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>id-amr:10220</t>
+          <t>id-amr:10221</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>charity of philanthropic funding</t>
+          <t>collection status</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>id-amr:10259</t>
-        </is>
-      </c>
+      <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
@@ -10551,18 +10551,22 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>id-amr:10221</t>
+          <t>id-amr:10222</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>collection status</t>
+          <t>not started</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>id-amr:10221</t>
+        </is>
+      </c>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
@@ -10588,12 +10592,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>id-amr:10222</t>
+          <t>id-amr:10223</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>not started</t>
+          <t>in progress</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -10629,12 +10633,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>id-amr:10223</t>
+          <t>id-amr:10224</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>in progress</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -10670,22 +10674,18 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>id-amr:10224</t>
+          <t>id-amr:10225</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>consent restriction</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>id-amr:10221</t>
-        </is>
-      </c>
+      <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
@@ -10711,18 +10711,22 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>id-amr:10225</t>
+          <t>id-amr:10226</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>consent restriction</t>
+          <t>commerial resctriction</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>id-amr:10225</t>
+        </is>
+      </c>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -10748,12 +10752,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>id-amr:10226</t>
+          <t>id-amr:10227</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>commerial resctriction</t>
+          <t>disease area restriction</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -10789,12 +10793,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>id-amr:10227</t>
+          <t>id-amr:10228</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>disease area restriction</t>
+          <t>export restriction</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -10830,12 +10834,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>id-amr:10228</t>
+          <t>id-amr:10229</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>export restriction</t>
+          <t>genetic analysis restriction</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -10871,12 +10875,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>id-amr:10229</t>
+          <t>id-amr:10230</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>genetic analysis restriction</t>
+          <t>human genetic analysis restriction</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -10912,12 +10916,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>id-amr:10230</t>
+          <t>id-amr:10231</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>human genetic analysis restriction</t>
+          <t>project specific restriction</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10953,12 +10957,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>id-amr:10231</t>
+          <t>id-amr:10232</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>project specific restriction</t>
+          <t>scope of use restriction</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10994,22 +10998,18 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>id-amr:10232</t>
+          <t>id-amr:10233</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>scope of use restriction</t>
+          <t>access condition</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>id-amr:10225</t>
-        </is>
-      </c>
+      <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -11035,18 +11035,22 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>id-amr:10233</t>
+          <t>id-amr:10234</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>access condition</t>
+          <t>open to everyone</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>id-amr:10233</t>
+        </is>
+      </c>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
@@ -11072,12 +11076,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>id-amr:10234</t>
+          <t>id-amr:10235</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>open to everyone</t>
+          <t>open to applicants</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -11113,12 +11117,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>id-amr:10235</t>
+          <t>id-amr:10236</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>open to applicants</t>
+          <t>open in response to specific calls</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -11154,12 +11158,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>id-amr:10236</t>
+          <t>id-amr:10237</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>open in response to specific calls</t>
+          <t>open only through collaboration</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -11195,12 +11199,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>id-amr:10237</t>
+          <t>id-amr:10238</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>open only through collaboration</t>
+          <t>data access only</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -11236,12 +11240,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>id-amr:10238</t>
+          <t>id-amr:10239</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>data access only</t>
+          <t>access restricted at present</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -11277,12 +11281,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>id-amr:10239</t>
+          <t>id-amr:10240</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>access restricted at present</t>
+          <t>closed to access</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -11318,22 +11322,18 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>id-amr:10240</t>
+          <t>id-amr:10241</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>closed to access</t>
+          <t>time frame</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>id-amr:10233</t>
-        </is>
-      </c>
+      <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
@@ -11359,18 +11359,22 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>id-amr:10241</t>
+          <t>id-amr:10242</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>time frame</t>
+          <t>up to one month</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>id-amr:10241</t>
+        </is>
+      </c>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
@@ -11396,12 +11400,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>id-amr:10242</t>
+          <t>id-amr:10243</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>up to one month</t>
+          <t>up to one year</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -11437,12 +11441,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>id-amr:10243</t>
+          <t>id-amr:10244</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>up to one year</t>
+          <t>up to three years</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -11478,12 +11482,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>id-amr:10244</t>
+          <t>id-amr:10245</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>up to three years</t>
+          <t>three years or longer</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -11519,22 +11523,18 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>id-amr:10245</t>
+          <t>id-amr:10246</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>three years or longer</t>
+          <t>data quality</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>id-amr:10241</t>
-        </is>
-      </c>
+      <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
@@ -11560,18 +11560,22 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>id-amr:10246</t>
+          <t>id-amr:10247</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>data quality</t>
+          <t>data plausibility</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>id-amr:10246</t>
+        </is>
+      </c>
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
@@ -11597,12 +11601,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>id-amr:10247</t>
+          <t>id-amr:10248</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>data plausibility</t>
+          <t>data completeness</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -11638,12 +11642,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>id-amr:10248</t>
+          <t>id-amr:10249</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>data completeness</t>
+          <t>data accuracy</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -11679,12 +11683,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>id-amr:10249</t>
+          <t>id-amr:10250</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>data accuracy</t>
+          <t>sensitive information</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -11692,7 +11696,7 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>id-amr:10246</t>
+          <t>covid19:10262</t>
         </is>
       </c>
       <c r="G272" t="inlineStr"/>
@@ -11720,12 +11724,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>id-amr:10250</t>
+          <t>id-amr:10251</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>sensitive information</t>
+          <t>yes, and it is GDPR compliant</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -11733,7 +11737,7 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>covid19:10262</t>
+          <t>id-amr:10250</t>
         </is>
       </c>
       <c r="G273" t="inlineStr"/>
@@ -11761,12 +11765,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>id-amr:10251</t>
+          <t>id-amr:10252</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>yes, and it is GDPR compliant</t>
+          <t>yes, but it is not (yet) GDPR compliant</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -11802,12 +11806,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>id-amr:10252</t>
+          <t>gen:10097</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>yes, but it is not (yet) GDPR compliant</t>
+          <t>plant disease</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -11815,7 +11819,7 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>id-amr:10250</t>
+          <t>gen:10026</t>
         </is>
       </c>
       <c r="G275" t="inlineStr"/>
@@ -11843,12 +11847,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>gen:10097</t>
+          <t>id-amr:10253</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>plant disease</t>
+          <t>viral disease</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -11856,7 +11860,7 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>gen:10026</t>
+          <t>gen:10097</t>
         </is>
       </c>
       <c r="G276" t="inlineStr"/>
@@ -11884,12 +11888,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>id-amr:10253</t>
+          <t>id-amr:10254</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>viral disease</t>
+          <t>bacterial disease</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -11925,12 +11929,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>id-amr:10254</t>
+          <t>id-amr:10255</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>bacterial disease</t>
+          <t>fungal disease</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -11966,12 +11970,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>id-amr:10255</t>
+          <t>id-amr:10256</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>fungal disease</t>
+          <t>nematode disease</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -12007,12 +12011,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>id-amr:10256</t>
+          <t>id-amr:10257</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>nematode disease</t>
+          <t>phytoplasma disease</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -12048,12 +12052,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>id-amr:10257</t>
+          <t>id-amr:10258</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>phytoplasma disease</t>
+          <t>disease caused by insects</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -12089,22 +12093,18 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>id-amr:10258</t>
+          <t>id-amr:10259</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>disease caused by insects</t>
+          <t>funding type</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>gen:10097</t>
-        </is>
-      </c>
+      <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
@@ -12127,43 +12127,6 @@
       <c r="Z282" t="inlineStr"/>
       <c r="AA282" t="inlineStr"/>
     </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>id-amr:10259</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>funding type</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="inlineStr"/>
-      <c r="N283" t="inlineStr"/>
-      <c r="O283" t="inlineStr"/>
-      <c r="P283" t="inlineStr"/>
-      <c r="Q283" t="inlineStr"/>
-      <c r="R283" t="inlineStr"/>
-      <c r="S283" t="inlineStr"/>
-      <c r="T283" t="inlineStr"/>
-      <c r="U283" t="inlineStr"/>
-      <c r="V283" t="inlineStr"/>
-      <c r="W283" t="inlineStr"/>
-      <c r="X283" t="inlineStr"/>
-      <c r="Y283" t="inlineStr"/>
-      <c r="Z283" t="inlineStr"/>
-      <c r="AA283" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4756,11 +4756,7 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>gen:10007</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -11817,11 +11813,7 @@
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>gen:10026</t>
-        </is>
-      </c>
+      <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -5550,7 +5550,11 @@
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
       <c r="G124" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/STY/T002</t>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA282"/>
+  <dimension ref="A1:AA285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10404,7 +10404,7 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>id-amr:10259</t>
+          <t>id-amr:10261</t>
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
@@ -10445,7 +10445,7 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>id-amr:10259</t>
+          <t>id-amr:10261</t>
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
@@ -10486,7 +10486,7 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>id-amr:10259</t>
+          <t>id-amr:10261</t>
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
@@ -11856,7 +11856,7 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>gen:10097</t>
+          <t>gen:10097, gen:10096</t>
         </is>
       </c>
       <c r="G276" t="inlineStr"/>
@@ -11897,7 +11897,7 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>gen:10097</t>
+          <t>gen:10097, gen:10096</t>
         </is>
       </c>
       <c r="G277" t="inlineStr"/>
@@ -11938,7 +11938,7 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>gen:10097</t>
+          <t>gen:10097, gen:10096</t>
         </is>
       </c>
       <c r="G278" t="inlineStr"/>
@@ -11979,7 +11979,7 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>gen:10097</t>
+          <t>gen:10097, gen:10096</t>
         </is>
       </c>
       <c r="G279" t="inlineStr"/>
@@ -12061,7 +12061,7 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>gen:10097</t>
+          <t>gen:10097, gen:10096</t>
         </is>
       </c>
       <c r="G281" t="inlineStr"/>
@@ -12094,13 +12094,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>funding type</t>
+          <t>parasite disease</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>gen:10097, gen:10096</t>
+        </is>
+      </c>
       <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
@@ -12123,6 +12127,121 @@
       <c r="Z282" t="inlineStr"/>
       <c r="AA282" t="inlineStr"/>
     </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>id-amr:10260</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>non-infectious disease</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>gen:10097, gen:10096</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr"/>
+      <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr"/>
+      <c r="R283" t="inlineStr"/>
+      <c r="S283" t="inlineStr"/>
+      <c r="T283" t="inlineStr"/>
+      <c r="U283" t="inlineStr"/>
+      <c r="V283" t="inlineStr"/>
+      <c r="W283" t="inlineStr"/>
+      <c r="X283" t="inlineStr"/>
+      <c r="Y283" t="inlineStr"/>
+      <c r="Z283" t="inlineStr"/>
+      <c r="AA283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>gen:10096</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>animal disease</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="inlineStr"/>
+      <c r="O284" t="inlineStr"/>
+      <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr"/>
+      <c r="R284" t="inlineStr"/>
+      <c r="S284" t="inlineStr"/>
+      <c r="T284" t="inlineStr"/>
+      <c r="U284" t="inlineStr"/>
+      <c r="V284" t="inlineStr"/>
+      <c r="W284" t="inlineStr"/>
+      <c r="X284" t="inlineStr"/>
+      <c r="Y284" t="inlineStr"/>
+      <c r="Z284" t="inlineStr"/>
+      <c r="AA284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>id-amr:10261</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>funding type</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr"/>
+      <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr"/>
+      <c r="R285" t="inlineStr"/>
+      <c r="S285" t="inlineStr"/>
+      <c r="T285" t="inlineStr"/>
+      <c r="U285" t="inlineStr"/>
+      <c r="V285" t="inlineStr"/>
+      <c r="W285" t="inlineStr"/>
+      <c r="X285" t="inlineStr"/>
+      <c r="Y285" t="inlineStr"/>
+      <c r="Z285" t="inlineStr"/>
+      <c r="AA285" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA285"/>
+  <dimension ref="A1:AA290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>quality control information about biomaterials</t>
+          <t>quality control of biomaterials</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -8276,7 +8276,7 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>id-amr:10162, gen:10005</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -8309,17 +8309,13 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>freeze thaw cycles</t>
+          <t xml:space="preserve">quality management of pre-analytical data </t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>id-amr:10162</t>
-        </is>
-      </c>
+      <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
@@ -8350,7 +8346,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>concentration of molecular or cellurlar derivatives</t>
+          <t>concentration of molecular or cellular derivatives</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8473,7 +8469,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>sample storage</t>
+          <t>storage format for long-term preservation</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8481,7 +8477,7 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>id-amr:10162</t>
+          <t>id-amr:10264</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -8522,7 +8518,7 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>id-amr:10163</t>
+          <t>id-amr:10264</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -8563,7 +8559,7 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>id-amr:10163</t>
+          <t>id-amr:10265</t>
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
@@ -8596,7 +8592,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>centrifugaion conditions</t>
+          <t>centrifugation conditions</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8604,7 +8600,7 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>id-amr:10163</t>
+          <t>id-amr:10265</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
@@ -8645,7 +8641,7 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>id-amr:10163</t>
+          <t>id-amr:10265</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
@@ -8678,7 +8674,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>long-term storage conditions</t>
+          <t>storage temperature for long-term preservation</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -8686,7 +8682,7 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>id-amr:10163</t>
+          <t>id-amr:10264</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
@@ -8719,17 +8715,13 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>information about microbiological material</t>
+          <t>quality control of microbiological material</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>id-amr:10162</t>
-        </is>
-      </c>
+      <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
@@ -12242,6 +12234,199 @@
       <c r="Z285" t="inlineStr"/>
       <c r="AA285" t="inlineStr"/>
     </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>id-amr:10262</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>id-amr: 10164</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="inlineStr"/>
+      <c r="O286" t="inlineStr"/>
+      <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr"/>
+      <c r="R286" t="inlineStr"/>
+      <c r="S286" t="inlineStr"/>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="inlineStr"/>
+      <c r="V286" t="inlineStr"/>
+      <c r="W286" t="inlineStr"/>
+      <c r="X286" t="inlineStr"/>
+      <c r="Y286" t="inlineStr"/>
+      <c r="Z286" t="inlineStr"/>
+      <c r="AA286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>id-amr:10263</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>centrifugation</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>id-amr: 10164</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="inlineStr"/>
+      <c r="O287" t="inlineStr"/>
+      <c r="P287" t="inlineStr"/>
+      <c r="Q287" t="inlineStr"/>
+      <c r="R287" t="inlineStr"/>
+      <c r="S287" t="inlineStr"/>
+      <c r="T287" t="inlineStr"/>
+      <c r="U287" t="inlineStr"/>
+      <c r="V287" t="inlineStr"/>
+      <c r="W287" t="inlineStr"/>
+      <c r="X287" t="inlineStr"/>
+      <c r="Y287" t="inlineStr"/>
+      <c r="Z287" t="inlineStr"/>
+      <c r="AA287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>id-amr:10264</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>storage information</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="inlineStr"/>
+      <c r="O288" t="inlineStr"/>
+      <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr"/>
+      <c r="R288" t="inlineStr"/>
+      <c r="S288" t="inlineStr"/>
+      <c r="T288" t="inlineStr"/>
+      <c r="U288" t="inlineStr"/>
+      <c r="V288" t="inlineStr"/>
+      <c r="W288" t="inlineStr"/>
+      <c r="X288" t="inlineStr"/>
+      <c r="Y288" t="inlineStr"/>
+      <c r="Z288" t="inlineStr"/>
+      <c r="AA288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>id-amr:10265</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>centrifugation information</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="inlineStr"/>
+      <c r="O289" t="inlineStr"/>
+      <c r="P289" t="inlineStr"/>
+      <c r="Q289" t="inlineStr"/>
+      <c r="R289" t="inlineStr"/>
+      <c r="S289" t="inlineStr"/>
+      <c r="T289" t="inlineStr"/>
+      <c r="U289" t="inlineStr"/>
+      <c r="V289" t="inlineStr"/>
+      <c r="W289" t="inlineStr"/>
+      <c r="X289" t="inlineStr"/>
+      <c r="Y289" t="inlineStr"/>
+      <c r="Z289" t="inlineStr"/>
+      <c r="AA289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>id-amr:10266</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>viability frequency</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="inlineStr"/>
+      <c r="O290" t="inlineStr"/>
+      <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr"/>
+      <c r="R290" t="inlineStr"/>
+      <c r="S290" t="inlineStr"/>
+      <c r="T290" t="inlineStr"/>
+      <c r="U290" t="inlineStr"/>
+      <c r="V290" t="inlineStr"/>
+      <c r="W290" t="inlineStr"/>
+      <c r="X290" t="inlineStr"/>
+      <c r="Y290" t="inlineStr"/>
+      <c r="Z290" t="inlineStr"/>
+      <c r="AA290" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA290"/>
+  <dimension ref="A1:AA289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>time frame</t>
+          <t>viability frequency</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -12250,7 +12250,7 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>id-amr: 10164</t>
+          <t>id-amr:10164</t>
         </is>
       </c>
       <c r="G286" t="inlineStr"/>
@@ -12291,7 +12291,7 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>id-amr: 10164</t>
+          <t>id-amr:10164</t>
         </is>
       </c>
       <c r="G287" t="inlineStr"/>
@@ -12390,43 +12390,6 @@
       <c r="Z289" t="inlineStr"/>
       <c r="AA289" t="inlineStr"/>
     </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>id-amr:10266</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>viability frequency</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr"/>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="inlineStr"/>
-      <c r="N290" t="inlineStr"/>
-      <c r="O290" t="inlineStr"/>
-      <c r="P290" t="inlineStr"/>
-      <c r="Q290" t="inlineStr"/>
-      <c r="R290" t="inlineStr"/>
-      <c r="S290" t="inlineStr"/>
-      <c r="T290" t="inlineStr"/>
-      <c r="U290" t="inlineStr"/>
-      <c r="V290" t="inlineStr"/>
-      <c r="W290" t="inlineStr"/>
-      <c r="X290" t="inlineStr"/>
-      <c r="Y290" t="inlineStr"/>
-      <c r="Z290" t="inlineStr"/>
-      <c r="AA290" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA289"/>
+  <dimension ref="A1:AA290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8883,7 +8883,7 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>id-amr:10266</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -8924,7 +8924,7 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>id-amr:10266</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>id-amr:10266</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
@@ -9006,7 +9006,7 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>id-amr:10266</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>viability frequency</t>
+          <t>time frame</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -12390,6 +12390,43 @@
       <c r="Z289" t="inlineStr"/>
       <c r="AA289" t="inlineStr"/>
     </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>id-amr:10266</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>viability frequency</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="inlineStr"/>
+      <c r="O290" t="inlineStr"/>
+      <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr"/>
+      <c r="R290" t="inlineStr"/>
+      <c r="S290" t="inlineStr"/>
+      <c r="T290" t="inlineStr"/>
+      <c r="U290" t="inlineStr"/>
+      <c r="V290" t="inlineStr"/>
+      <c r="W290" t="inlineStr"/>
+      <c r="X290" t="inlineStr"/>
+      <c r="Y290" t="inlineStr"/>
+      <c r="Z290" t="inlineStr"/>
+      <c r="AA290" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA290"/>
+  <dimension ref="A1:AA289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1793,12 +1793,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>id-amr:10014</t>
+          <t>id-amr:10015</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">One Health </t>
+          <t>human domain</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1834,12 +1834,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>id-amr:10015</t>
+          <t>id-amr:10016</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>human health</t>
+          <t>animal domain</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1875,22 +1875,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>id-amr:10016</t>
+          <t>id-amr:10017</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>animal health</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>id-amr:10084</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1916,18 +1912,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>id-amr:10017</t>
+          <t>id-amr:10018</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>environmental domain</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>id-amr:10084</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1953,12 +1953,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>id-amr:10018</t>
+          <t>gen:10024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>environmental health</t>
+          <t>microorganism</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1966,7 +1966,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>id-amr:10084</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1994,22 +1994,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>gen:10024</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>microorganism</t>
+          <t>temporal scope</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>gen:10008</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2035,18 +2031,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gen:10003</t>
+          <t>id-amr:10021</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>temporal scope</t>
+          <t>diagnostic phase</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>gen:10003</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -2072,12 +2072,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>id-amr:10021</t>
+          <t>id-amr:10022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>diagnostic phase</t>
+          <t>screening phase</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2113,12 +2113,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>id-amr:10022</t>
+          <t>id-amr:10023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>screening phase</t>
+          <t>intervention phase</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2154,12 +2154,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>id-amr:10023</t>
+          <t>id-amr:10024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>intervention phase</t>
+          <t>disease phase</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2195,12 +2195,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>id-amr:10024</t>
+          <t>id-amr:10025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>disease phase</t>
+          <t>free-from-disease phase</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2236,12 +2236,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>id-amr:10025</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>free-from-disease phase</t>
+          <t>aftercare phase</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2277,22 +2277,18 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>aftercare phase</t>
+          <t>population group</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>gen:10003</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2318,18 +2314,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>gen:10004</t>
+          <t>id-amr:10028</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>population group</t>
+          <t>subject with an infection</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>gen:10004</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2355,12 +2355,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>id-amr:10028</t>
+          <t>id-amr:10029</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>subject with an infection</t>
+          <t>subject with a bacterial infection</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2396,12 +2396,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>id-amr:10029</t>
+          <t>id-amr:10030</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>subject with a bacterial infection</t>
+          <t>subject with a viral infection</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2437,12 +2437,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>id-amr:10030</t>
+          <t>id-amr:10031</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>subject with a viral infection</t>
+          <t>subject with an unknown infection</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2478,12 +2478,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>id-amr:10031</t>
+          <t>id-amr:10032</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>subject with an unknown infection</t>
+          <t>subject with risk of infection</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2519,12 +2519,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>id-amr:10032</t>
+          <t>id-amr:10033</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>subject with risk of infection</t>
+          <t>subject with risk of bacterial infection</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2560,12 +2560,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>id-amr:10033</t>
+          <t>id-amr:10034</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>subject with risk of bacterial infection</t>
+          <t>subject with risk of viral infection</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2601,12 +2601,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>id-amr:10034</t>
+          <t>id-amr:10035</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>subject with risk of viral infection</t>
+          <t>subject having antimicrobial treatment</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2642,12 +2642,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>id-amr:10035</t>
+          <t>id-amr:10036</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>subject having antimicrobial treatment</t>
+          <t>subject having vaccination</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2683,12 +2683,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>id-amr:10036</t>
+          <t>id-amr:10037</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>subject having vaccination</t>
+          <t>subject having other treatments</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2724,12 +2724,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>id-amr:10037</t>
+          <t>id-amr:10038</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>subject having other treatments</t>
+          <t>subject by age</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2765,12 +2765,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>id-amr:10038</t>
+          <t>id-amr:10039</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>subject by age</t>
+          <t>subject by sex</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2806,15 +2806,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>id-amr:10039</t>
+          <t>id-amr:10040</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>subject by sex</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>infectious agent</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>pathogen</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
@@ -2847,19 +2851,15 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>id-amr:10040</t>
+          <t>id-amr:10041</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>infectious agent</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>pathogen</t>
-        </is>
-      </c>
+          <t>infectious agent having antimicrobial resistance</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
@@ -2892,12 +2892,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>id-amr:10041</t>
+          <t>id-amr:10042</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>infectious agent having antimicrobial resistance</t>
+          <t>soil</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2905,7 +2905,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>gen:10004</t>
+          <t>id-amr:10017</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2933,12 +2933,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>id-amr:10042</t>
+          <t>id-amr:10043</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>soil-waste</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2974,12 +2974,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>id-amr:10043</t>
+          <t>id-amr:10044</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>soil-waste</t>
+          <t>wastewater</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3015,12 +3015,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>id-amr:10044</t>
+          <t>id-amr:10045</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>wastewater</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3056,12 +3056,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>id-amr:10045</t>
+          <t>id-amr:10046</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>air</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3097,12 +3097,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>id-amr:10046</t>
+          <t>id-amr:10047</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>livestock</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3110,7 +3110,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>id-amr:10017</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3138,12 +3138,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>id-amr:10047</t>
+          <t>id-amr:10048</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>livestock</t>
+          <t>diary cattle</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3151,7 +3151,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>gen:10025</t>
+          <t>id-amr:10047</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3179,12 +3179,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>id-amr:10048</t>
+          <t>id-amr:10049</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>diary cattle</t>
+          <t>veal calve</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3220,12 +3220,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>id-amr:10049</t>
+          <t>id-amr:10050</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>veal calve</t>
+          <t>beef cattle</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3261,12 +3261,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>id-amr:10050</t>
+          <t>id-amr:10051</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>beef cattle</t>
+          <t>buffalo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3302,12 +3302,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>id-amr:10051</t>
+          <t>id-amr:10052</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>buffalo</t>
+          <t>sheep (wool)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3343,12 +3343,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>id-amr:10052</t>
+          <t>id-amr:10053</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sheep (wool)</t>
+          <t>sheep (milk)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3384,12 +3384,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>id-amr:10053</t>
+          <t>id-amr:10054</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sheep (milk)</t>
+          <t>goat (meat)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3425,12 +3425,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>id-amr:10054</t>
+          <t>id-amr:10055</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>goat (meat)</t>
+          <t>goat (milk)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3466,12 +3466,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>id-amr:10055</t>
+          <t>id-amr:10056</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>goat (milk)</t>
+          <t>horse</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3507,12 +3507,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>id-amr:10056</t>
+          <t>id-amr:10057</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>horse</t>
+          <t>pig</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3548,12 +3548,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>id-amr:10057</t>
+          <t>id-amr:10058</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>pig</t>
+          <t>broiler</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3589,12 +3589,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>id-amr:10058</t>
+          <t>id-amr:10059</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>broiler</t>
+          <t>layer</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3630,12 +3630,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>id-amr:10059</t>
+          <t>id-amr:10060</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>layer</t>
+          <t>poultry</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3643,7 +3643,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>id-amr:10047</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -3671,12 +3671,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>id-amr:10060</t>
+          <t>id-amr:10061</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>poultry</t>
+          <t>insect</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3712,12 +3712,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>id-amr:10061</t>
+          <t>id-amr:10062</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>insect</t>
+          <t>wildlife</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3753,12 +3753,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>id-amr:10062</t>
+          <t>id-amr:10063</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>wildlife</t>
+          <t>companion animal</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3794,12 +3794,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>id-amr:10063</t>
+          <t>id-amr:10065</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>companion animal</t>
+          <t>fungus</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3807,7 +3807,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>gen:10025</t>
+          <t>gen:10024</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -3835,12 +3835,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>id-amr:10065</t>
+          <t>id-amr:10066</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>fungus</t>
+          <t>aquaculture</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3848,7 +3848,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>gen:10024</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3876,22 +3876,18 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>id-amr:10066</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>aquaculture</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>gen:10025</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -3917,18 +3913,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>id-amr:10068</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>epidemiological data</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>covid19:10108</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -3954,12 +3954,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>id-amr:10068</t>
+          <t>id-amr:10069</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>epidemiological data</t>
+          <t>diagnostics usage data</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3995,12 +3995,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>id-amr:10069</t>
+          <t>id-amr:10070</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>diagnostics usage data</t>
+          <t xml:space="preserve">complete medical records </t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4036,12 +4036,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>id-amr:10070</t>
+          <t>id-amr:10071</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">complete medical records </t>
+          <t>imaging data</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4049,7 +4049,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>covid19:10132</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -4077,12 +4077,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>id-amr:10071</t>
+          <t>id-amr:10072</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>imaging data</t>
+          <t>data with respect to resistance</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4090,7 +4090,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>covid19:10132</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -4118,12 +4118,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>id-amr:10072</t>
+          <t>id-amr:10073</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>data with respect to resistance</t>
+          <t>health status data</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4131,7 +4131,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>covid19:10109</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -4159,12 +4159,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>id-amr:10073</t>
+          <t>id-amr:10074</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>health status data</t>
+          <t>taxonomical data</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4172,7 +4172,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>covid19:10109</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -4200,12 +4200,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>id-amr:10074</t>
+          <t>covid19:10125</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>taxonomical data</t>
+          <t>survey data</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4241,12 +4241,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>covid19:10125</t>
+          <t>covid19:10122</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>survey data</t>
+          <t>economic data</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4282,12 +4282,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>covid19:10122</t>
+          <t>covid19:10114</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>economic data</t>
+          <t>treatment data</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4295,7 +4295,7 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -4323,12 +4323,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>covid19:10114</t>
+          <t>covid19:10127</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>treatment data</t>
+          <t>environmental data</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4336,7 +4336,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -4364,12 +4364,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>covid19:10127</t>
+          <t>covid19:10244</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>environmental data</t>
+          <t>genomics data</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4377,7 +4377,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -4405,12 +4405,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>covid19:10244</t>
+          <t>covid19:10112</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>genomics data</t>
+          <t>physiological data</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4446,12 +4446,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>covid19:10112</t>
+          <t>covid19:10132</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>physiological data</t>
+          <t>audiovisual data</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -4459,7 +4459,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -4487,22 +4487,18 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>covid19:10132</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>audiovisual data</t>
+          <t>organism</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>gen:10005</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -4528,12 +4524,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>organism</t>
+          <t>specimen</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4565,12 +4561,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>gen:10009</t>
+          <t>id-amr:10084</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>health domain</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4602,19 +4598,35 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>id-amr:10084</t>
+          <t>covid19:10151</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>health domain</t>
+          <t>bacteria</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4639,23 +4651,23 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>covid19:10151</t>
+          <t>covid19:10150</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bacteria</t>
+          <t>virus</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
+          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4665,7 +4677,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4692,35 +4704,19 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>covid19:10150</t>
+          <t>gen:10011</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>virus</t>
+          <t>macromolecule</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>gen:10024</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4745,18 +4741,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>gen:10011</t>
+          <t>id-amr:10085</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>macromolecule</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>gen:10011</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -4782,12 +4782,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>id-amr:10085</t>
+          <t>id-amr:10086</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>antibody</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4823,23 +4823,35 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>id-amr:10086</t>
+          <t>covid19:10152</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>antibody</t>
+          <t>parasite</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Any organism that has a close, symbiotic relationship with a separate, host organism.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28176</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>gen:10011</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCIT_C28176</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4864,35 +4876,23 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>covid19:10152</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>parasite</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Any organism that has a close, symbiotic relationship with a separate, host organism.</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28176</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>gen:10024</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/NCIT_C28176</t>
-        </is>
-      </c>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4917,12 +4917,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>gen:10025</t>
+          <t>id-amr:10087</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>outbreak</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4930,7 +4930,7 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -4958,12 +4958,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>id-amr:10087</t>
+          <t>id-amr:10088</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>outbreak</t>
+          <t>biopsy sample</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4971,10 +4971,14 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>gen:10001</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258415003</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4999,12 +5003,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>id-amr:10088</t>
+          <t>id-amr:10089</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>biopsy sample</t>
+          <t>blood specimen</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5017,7 +5021,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258415003</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119297000</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -5044,12 +5048,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>id-amr:10089</t>
+          <t>id-amr:10090</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>blood specimen</t>
+          <t>bronchoalveolar lavage fluid sample</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5062,7 +5066,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119297000</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258607008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -5089,12 +5093,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>id-amr:10090</t>
+          <t>id-amr:10091</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bronchoalveolar lavage fluid sample</t>
+          <t>cerebrospinal fluid sample</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5107,7 +5111,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258607008</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258450006</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -5134,12 +5138,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>id-amr:10091</t>
+          <t>id-amr:10092</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>cerebrospinal fluid sample</t>
+          <t>respiratory sample</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5152,7 +5156,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258450006</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258603007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -5179,12 +5183,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>id-amr:10092</t>
+          <t>id-amr:10093</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>respiratory sample</t>
+          <t>skin swab</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5197,7 +5201,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258603007</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258503004</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -5224,12 +5228,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>id-amr:10093</t>
+          <t>id-amr:10094</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>skin swab</t>
+          <t>specimen from geinital system</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5242,7 +5246,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/258503004</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119344008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -5269,12 +5273,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>id-amr:10094</t>
+          <t>id-amr:10095</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>specimen from geinital system</t>
+          <t>specimen of unknown material</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5287,7 +5291,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119344008</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119324002</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -5314,12 +5318,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>id-amr:10095</t>
+          <t>id-amr:10096</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>specimen of unknown material</t>
+          <t>stool specimen</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -5332,7 +5336,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119324002</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119339001</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -5359,12 +5363,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>id-amr:10096</t>
+          <t>id-amr:10097</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>stool specimen</t>
+          <t>synovial fluid specimen</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5377,7 +5381,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119339001</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119332005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -5404,12 +5408,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>id-amr:10097</t>
+          <t>id-amr:10098</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>synovial fluid specimen</t>
+          <t>urine specimen</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -5422,7 +5426,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119332005</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/122575003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -5449,12 +5453,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>id-amr:10098</t>
+          <t>id-amr:10099</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>urine specimen</t>
+          <t>body fluid sample</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -5467,7 +5471,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/122575003</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/309051001</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -5494,12 +5498,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>id-amr:10099</t>
+          <t>gen:10098</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>body fluid sample</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5507,12 +5511,12 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>gen:10009</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/309051001</t>
+          <t>http://purl.bioontology.org/ontology/STY/T002</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -5539,12 +5543,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>gen:10098</t>
+          <t>id-amr:10100</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>fruit</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5552,12 +5556,12 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10098</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/STY/T002</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/72511004</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -5584,12 +5588,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>id-amr:10100</t>
+          <t>id-amr:10101</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>vegetable</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5602,7 +5606,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/72511004</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/22836000</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -5629,12 +5633,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>id-amr:10101</t>
+          <t>id-amr:10102</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>vegetable</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5647,7 +5651,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/22836000</t>
+          <t>http://purl.obolibrary.org/obo/AGRO_00000325</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -5674,12 +5678,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>id-amr:10102</t>
+          <t>id-amr:10103</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>cereal</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5692,7 +5696,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/AGRO_00000325</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/23182003</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -5719,12 +5723,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>id-amr:10103</t>
+          <t>id-amr:10104</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>cereal</t>
+          <t>oil seed</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5735,11 +5739,7 @@
           <t>gen:10098</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/23182003</t>
-        </is>
-      </c>
+      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5764,12 +5764,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>id-amr:10104</t>
+          <t>id-amr:10105</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>oil seed</t>
+          <t>pulse - bean</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5780,7 +5780,11 @@
           <t>gen:10098</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906074151720668</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5805,12 +5809,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>id-amr:10105</t>
+          <t>id-amr:10106</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>pulse - bean</t>
+          <t>tree nut</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5823,7 +5827,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://purl.jp/bio/4/id/200906074151720668</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/442571000124108</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -5850,27 +5854,19 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>id-amr:10106</t>
+          <t>id-amr:10107</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>tree nut</t>
+          <t>detailed type of specimen</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>gen:10098</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/442571000124108</t>
-        </is>
-      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5895,19 +5891,27 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>id-amr:10108</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>detailed type of specimen</t>
+          <t>amniotic fluid</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/77012006</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5932,12 +5936,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>id-amr:10108</t>
+          <t>id-amr:10109</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>amniotic fluid</t>
+          <t>ascites fluid</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5948,11 +5952,7 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/77012006</t>
-        </is>
-      </c>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5977,12 +5977,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>id-amr:10109</t>
+          <t>id-amr:10110</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ascites fluid</t>
+          <t>blood (whole)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5990,10 +5990,14 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr"/>
+          <t>covid19:10154, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/420135007</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -6018,12 +6022,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>id-amr:10110</t>
+          <t>id-amr:10111</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>blood (whole)</t>
+          <t>bone</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -6031,12 +6035,12 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>covid19:10154, id-amr:10107</t>
+          <t>id-amr:10107</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/420135007</t>
+          <t>http://purl.bioontology.org/ontology/LNC/LA4277-5</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -6063,12 +6067,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>id-amr:10111</t>
+          <t>id-amr:10112</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>bone</t>
+          <t>bone marrow aspirate</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -6079,11 +6083,7 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/LNC/LA4277-5</t>
-        </is>
-      </c>
+      <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -6108,12 +6108,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>id-amr:10112</t>
+          <t>id-amr:10113</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>bone marrow aspirate</t>
+          <t>breast milk</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -6124,7 +6124,11 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/226789007</t>
+        </is>
+      </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -6149,12 +6153,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>id-amr:10113</t>
+          <t>id-amr:10114</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>breast milk</t>
+          <t>bronchoalveolar lavage</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6167,7 +6171,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/226789007</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/782971002</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
@@ -6194,12 +6198,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>id-amr:10114</t>
+          <t>id-amr:10115</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>bronchoalveolar lavage</t>
+          <t>buccal cells</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -6210,11 +6214,7 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/782971002</t>
-        </is>
-      </c>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -6239,12 +6239,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>id-amr:10115</t>
+          <t>id-amr:10116</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>buccal cells</t>
+          <t>cells from fine needle aspirate</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -6280,12 +6280,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>id-amr:10116</t>
+          <t>id-amr:10117</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>cells from fine needle aspirate</t>
+          <t>cells from laser capture microdissected tissue</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -6321,12 +6321,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>id-amr:10117</t>
+          <t>id-amr:10118</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>cells from laser capture microdissected tissue</t>
+          <t>cells from non blood specimen type (e.g. ascites, amniotic), non-viable</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6362,12 +6362,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>id-amr:10118</t>
+          <t>id-amr:10119</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>cells from non blood specimen type (e.g. ascites, amniotic), non-viable</t>
+          <t>cells from non blood specimen type (e.g. ascites, amniotic), viable</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -6403,12 +6403,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>id-amr:10119</t>
+          <t>id-amr:10120</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>cells from non blood specimen type (e.g. ascites, amniotic), viable</t>
+          <t>cells from non-blood specimen type (e.g. dissociated tissue), non-viable</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -6444,12 +6444,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>id-amr:10120</t>
+          <t>id-amr:10121</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>cells from non-blood specimen type (e.g. dissociated tissue), non-viable</t>
+          <t>cells from non-blood specimen type (e.g. dissociated tissue), viable</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -6485,12 +6485,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>id-amr:10121</t>
+          <t>id-amr:10122</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>cells from non-blood specimen type (e.g. dissociated tissue), viable</t>
+          <t>cerebrospinal fluid</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6501,7 +6501,11 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/65216001</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6526,12 +6530,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>id-amr:10122</t>
+          <t>id-amr:10123</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>cerebrospinal fluid</t>
+          <t>cord blood</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6539,12 +6543,12 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>covid19:10154, id-amr:10107</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/65216001</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/12499000</t>
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
@@ -6571,12 +6575,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>id-amr:10123</t>
+          <t>id-amr:10124</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>cord blood</t>
+          <t>density-gradient-centrifugation-separated mononuclear cells, non viable</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6584,14 +6588,10 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>covid19:10154, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/12499000</t>
-        </is>
-      </c>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6616,12 +6616,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>id-amr:10124</t>
+          <t>id-amr:10125</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>density-gradient-centrifugation-separated mononuclear cells, non viable</t>
+          <t>density-gradient-centrifugation-separated mononuclear cells, viable</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6657,12 +6657,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>id-amr:10125</t>
+          <t>id-amr:10126</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>density-gradient-centrifugation-separated mononuclear cells, viable</t>
+          <t>dental pulp</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6698,12 +6698,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>id-amr:10126</t>
+          <t>id-amr:10127</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>dental pulp</t>
+          <t>disrupted tissue, non-viable</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6739,12 +6739,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>id-amr:10127</t>
+          <t>id-amr:10128</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>disrupted tissue, non-viable</t>
+          <t>dried whole blood (e.g. guthrie cards)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6752,7 +6752,7 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>covid19:10154, id-amr:10107</t>
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
@@ -6780,12 +6780,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>id-amr:10128</t>
+          <t>id-amr:10129</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>dried whole blood (e.g. guthrie cards)</t>
+          <t>enriched (physicochemically) circulating tumor cells</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6793,7 +6793,7 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>covid19:10154, id-amr:10107</t>
+          <t>id-amr:10107</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -6821,12 +6821,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>id-amr:10129</t>
+          <t>id-amr:10130</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>enriched (physicochemically) circulating tumor cells</t>
+          <t>fresh cells from non-blood specimen type</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6862,12 +6862,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>id-amr:10130</t>
+          <t>id-amr:10131</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>fresh cells from non-blood specimen type</t>
+          <t>fresh cells from non-blood specimen type (e.g. biopsy)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6903,12 +6903,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>id-amr:10131</t>
+          <t>id-amr:10132</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>fresh cells from non-blood specimen type (e.g. biopsy)</t>
+          <t>hair</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6944,12 +6944,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>id-amr:10132</t>
+          <t>id-amr:10133</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>hair</t>
+          <t>nails</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6985,12 +6985,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>id-amr:10133</t>
+          <t>id-amr:10134</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>nails</t>
+          <t>nasal washing</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -7001,7 +7001,11 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/433871000124101</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -7026,12 +7030,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>id-amr:10134</t>
+          <t>id-amr:10135</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>nasal washing</t>
+          <t>non-density-gradient-centrifugation-separated buffy coat, non-viable</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -7042,11 +7046,7 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/433871000124101</t>
-        </is>
-      </c>
+      <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -7071,12 +7071,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>id-amr:10135</t>
+          <t>id-amr:10136</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>non-density-gradient-centrifugation-separated buffy coat, non-viable</t>
+          <t>non-density-gradient-centrifugation-separated buffy coat, viable</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -7112,12 +7112,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>id-amr:10136</t>
+          <t>id-amr:10137</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>non-density-gradient-centrifugation-separated buffy coat, viable</t>
+          <t>placenta</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -7153,12 +7153,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>id-amr:10137</t>
+          <t>id-amr:10138</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>placenta</t>
+          <t>plasma, double spun</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -7166,7 +7166,7 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>covid19:10157, id-amr:10107</t>
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
@@ -7194,12 +7194,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>id-amr:10138</t>
+          <t>id-amr:10139</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>plasma, double spun</t>
+          <t>plasma, single spun</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -7235,12 +7235,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>id-amr:10139</t>
+          <t>id-amr:10140</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>plasma, single spun</t>
+          <t>pleural fluid</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -7248,10 +7248,14 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>covid19:10157, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/2778004</t>
+        </is>
+      </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -7276,12 +7280,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>id-amr:10140</t>
+          <t>id-amr:10141</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>pleural fluid</t>
+          <t>red blood cells</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -7292,11 +7296,7 @@
           <t>id-amr:10107</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/2778004</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -7321,12 +7321,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>id-amr:10141</t>
+          <t>id-amr:10142</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>red blood cells</t>
+          <t>saliva</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -7334,10 +7334,14 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
+          <t>covid19:10158, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256897009</t>
+        </is>
+      </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7362,12 +7366,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>id-amr:10142</t>
+          <t>id-amr:10143</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>saliva</t>
+          <t>semen</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -7375,14 +7379,10 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>covid19:10158, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256897009</t>
-        </is>
-      </c>
+          <t>covid19:10159, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7407,12 +7407,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>id-amr:10143</t>
+          <t>id-amr:10144</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>semen</t>
+          <t>serum</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -7420,10 +7420,14 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>covid19:10159, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
+          <t>covid19:10160, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/67922002</t>
+        </is>
+      </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -7448,12 +7452,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>id-amr:10144</t>
+          <t>id-amr:10145</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>serum</t>
+          <t>solid tissue</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -7461,14 +7465,10 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>covid19:10160, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/67922002</t>
-        </is>
-      </c>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7493,12 +7493,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>id-amr:10145</t>
+          <t>id-amr:10146</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>solid tissue</t>
+          <t>sputum</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -7506,10 +7506,14 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr"/>
+          <t>covid19:10162, id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/45710003</t>
+        </is>
+      </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7534,12 +7538,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>id-amr:10146</t>
+          <t>id-amr:10147</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>sputum</t>
+          <t>stool</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -7547,12 +7551,12 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>covid19:10162, id-amr:10107</t>
+          <t>id-amr:10107</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/45710003</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/706697005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
@@ -7579,12 +7583,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>id-amr:10147</t>
+          <t>id-amr:10148</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>stool</t>
+          <t>synovial fluid</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -7597,7 +7601,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/706697005</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/6085005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
@@ -7624,12 +7628,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>id-amr:10148</t>
+          <t>id-amr:10149</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>synovial fluid</t>
+          <t>tears</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7637,12 +7641,12 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>covid19:10163, id-amr:10107</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/6085005</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/40431001</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -7669,12 +7673,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>id-amr:10149</t>
+          <t>id-amr:10150</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>tears</t>
+          <t>teeth</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7682,14 +7686,10 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>covid19:10163, id-amr:10107</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/40431001</t>
-        </is>
-      </c>
+          <t>id-amr:10107</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7714,12 +7714,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>id-amr:10150</t>
+          <t>id-amr:10151</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>teeth</t>
+          <t xml:space="preserve">urine, 24 h </t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7727,7 +7727,7 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>id-amr:10107</t>
+          <t>covid19:10165, id-amr:10107</t>
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
@@ -7755,12 +7755,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>id-amr:10151</t>
+          <t>id-amr:10152</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve">urine, 24 h </t>
+          <t>urine, first morning</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -7796,12 +7796,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>id-amr:10152</t>
+          <t>id-amr:10153</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>urine, first morning</t>
+          <t>urine, random</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -7837,12 +7837,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>id-amr:10153</t>
+          <t>id-amr:10154</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>urine, random</t>
+          <t>urine, timed</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7878,22 +7878,18 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>id-amr:10154</t>
+          <t>id-amr:10155</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>urine, timed</t>
+          <t>isolation source</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>covid19:10165, id-amr:10107</t>
-        </is>
-      </c>
+      <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
@@ -7919,19 +7915,27 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>id-amr:10155</t>
+          <t>id-amr:10156</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>isolation source</t>
+          <t>human material</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>id-amr:10155</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256645000</t>
+        </is>
+      </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7956,12 +7960,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>id-amr:10156</t>
+          <t>id-amr:10157</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>human material</t>
+          <t>animal material</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7974,7 +7978,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256645000</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256363008</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
@@ -8001,12 +8005,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>id-amr:10157</t>
+          <t>id-amr:10158</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>animal material</t>
+          <t>specimen from environment</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -8019,7 +8023,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/256363008</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/440229008</t>
         </is>
       </c>
       <c r="H182" t="inlineStr"/>
@@ -8046,12 +8050,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>id-amr:10158</t>
+          <t>id-amr:10159</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>specimen from environment</t>
+          <t>plant specimen</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -8064,7 +8068,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/440229008</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119301009</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
@@ -8091,12 +8095,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>id-amr:10159</t>
+          <t>id-amr:10160</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>plant specimen</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -8109,7 +8113,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119301009</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/8537005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
@@ -8136,12 +8140,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>id-amr:10160</t>
+          <t>id-amr:10161</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>biomedical device</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -8154,7 +8158,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/8537005</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/63653004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -8181,27 +8185,19 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>id-amr:10161</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>biomedical device</t>
+          <t>quality control of biomaterials</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>id-amr:10155</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/63653004</t>
-        </is>
-      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -8226,18 +8222,22 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>id-amr:10162</t>
+          <t>id-amr:10163</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>quality control of biomaterials</t>
+          <t>pre-analytical data</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>gen:10005</t>
+        </is>
+      </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
@@ -8263,22 +8263,18 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>id-amr:10163</t>
+          <t>id-amr:10164</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>pre-analytical data</t>
+          <t xml:space="preserve">quality management of pre-analytical data </t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>gen:10005</t>
-        </is>
-      </c>
+      <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
@@ -8304,18 +8300,22 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>id-amr:10164</t>
+          <t>id-amr:10165</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve">quality management of pre-analytical data </t>
+          <t>concentration of molecular or cellular derivatives</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>id-amr:10162</t>
+        </is>
+      </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
@@ -8341,12 +8341,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>id-amr:10165</t>
+          <t>id-amr:10166</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>concentration of molecular or cellular derivatives</t>
+          <t>purity of nucleic acids</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -8382,12 +8382,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>id-amr:10166</t>
+          <t>id-amr:10167</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>purity of nucleic acids</t>
+          <t>amplifiablility of nucleic acids</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -8423,12 +8423,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>id-amr:10167</t>
+          <t>id-amr:10168</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>amplifiablility of nucleic acids</t>
+          <t>storage format for long-term preservation</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -8436,7 +8436,7 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>id-amr:10162</t>
+          <t>id-amr:10264</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
@@ -8464,12 +8464,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>id-amr:10168</t>
+          <t>id-amr:10170</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>storage format for long-term preservation</t>
+          <t>type of primary container</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -8505,12 +8505,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>id-amr:10170</t>
+          <t>id-amr:10171</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>type of primary container</t>
+          <t>pre-centrifugation conditions</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -8518,7 +8518,7 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>id-amr:10264</t>
+          <t>id-amr:10265</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -8546,12 +8546,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>id-amr:10171</t>
+          <t>id-amr:10172</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>pre-centrifugation conditions</t>
+          <t>centrifugation conditions</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8587,12 +8587,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>id-amr:10172</t>
+          <t>id-amr:10173</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>centrifugation conditions</t>
+          <t>post-centrifugation conditions</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -8628,12 +8628,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>id-amr:10173</t>
+          <t>id-amr:10174</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>post-centrifugation conditions</t>
+          <t>storage temperature for long-term preservation</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -8641,7 +8641,7 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>id-amr:10265</t>
+          <t>id-amr:10264</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
@@ -8669,22 +8669,18 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>id-amr:10174</t>
+          <t>id-amr:10179</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>storage temperature for long-term preservation</t>
+          <t>quality control of microbiological material</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>id-amr:10264</t>
-        </is>
-      </c>
+      <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
@@ -8710,18 +8706,22 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>id-amr:10179</t>
+          <t>id-amr:10180</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>quality control of microbiological material</t>
+          <t xml:space="preserve">authenticity of microbiological material </t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>id-amr:10179</t>
+        </is>
+      </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
@@ -8747,12 +8747,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>id-amr:10180</t>
+          <t>id-amr:10181</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve">authenticity of microbiological material </t>
+          <t xml:space="preserve">purity of microbiological material </t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -8788,12 +8788,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>id-amr:10181</t>
+          <t>id-amr:10182</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve">purity of microbiological material </t>
+          <t xml:space="preserve">viability of microbiological material </t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8829,12 +8829,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>id-amr:10182</t>
+          <t>id-amr:10183</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve">viability of microbiological material </t>
+          <t>once every year</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8842,7 +8842,7 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>id-amr:10179</t>
+          <t>id-amr:10266</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -8870,12 +8870,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>id-amr:10183</t>
+          <t>id-amr:10184</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>once every year</t>
+          <t>every two years</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8911,12 +8911,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>id-amr:10184</t>
+          <t>id-amr:10185</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>every two years</t>
+          <t>every five years</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8952,12 +8952,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>id-amr:10185</t>
+          <t>id-amr:10186</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>every five years</t>
+          <t>less frequently</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8993,12 +8993,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>id-amr:10186</t>
+          <t>id-amr:10187</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>less frequently</t>
+          <t>integrity of nucleic acids</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -9006,7 +9006,7 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>id-amr:10266</t>
+          <t>id-amr:10162</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -9034,12 +9034,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>id-amr:10187</t>
+          <t>id-amr:10188</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>integrity of nucleic acids</t>
+          <t>food specimen</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -9047,7 +9047,7 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>id-amr:10162</t>
+          <t>id-amr:10155</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -9075,12 +9075,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>id-amr:10188</t>
+          <t>covid19:10109</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>food specimen</t>
+          <t>health record data</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -9088,7 +9088,7 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>id-amr:10155</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -9116,12 +9116,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>covid19:10109</t>
+          <t>id-amr:10190</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>health record data</t>
+          <t>physiological - biochemical measurement</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -9129,7 +9129,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>covid19:10112</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -9157,12 +9157,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>id-amr:10190</t>
+          <t>id-amr:10191</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>physiological - biochemical measurement</t>
+          <t>sequencing - genotyping data</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -9170,7 +9170,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>covid19:10112</t>
+          <t>covid19:10244</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -9198,12 +9198,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>id-amr:10191</t>
+          <t>id-amr:10192</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>sequencing - genotyping data</t>
+          <t>clinical records</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -9211,7 +9211,7 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>covid19:10244</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -9239,12 +9239,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>id-amr:10192</t>
+          <t>id-amr:10193</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>clinical records</t>
+          <t>follow-up records</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -9280,12 +9280,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>id-amr:10193</t>
+          <t>id-amr:10194</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>follow-up records</t>
+          <t xml:space="preserve">monitoring data </t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -9321,12 +9321,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>id-amr:10194</t>
+          <t>id-amr:10195</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve">monitoring data </t>
+          <t>surveillance data</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -9362,12 +9362,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>id-amr:10195</t>
+          <t>id-amr:10196</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>surveillance data</t>
+          <t>patient ethnicity data</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9375,7 +9375,7 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>covid19:10262</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
@@ -9403,12 +9403,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>id-amr:10196</t>
+          <t>id-amr:10197</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>patient ethnicity data</t>
+          <t>quality data</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -9416,7 +9416,7 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>covid19:10262</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
@@ -9444,12 +9444,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>id-amr:10197</t>
+          <t>id-amr:10198</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>quality data</t>
+          <t xml:space="preserve">experimental data </t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -9485,12 +9485,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>id-amr:10198</t>
+          <t>id-amr:10199</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve">experimental data </t>
+          <t>biospecimen processing</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -9498,7 +9498,7 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>gen:10005</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
@@ -9526,12 +9526,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>id-amr:10199</t>
+          <t>id-amr:10200</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>biospecimen processing</t>
+          <t>data analysis</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -9567,12 +9567,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>id-amr:10200</t>
+          <t>id-amr:10201</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>data analysis</t>
+          <t>data integration</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -9608,12 +9608,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>id-amr:10201</t>
+          <t>id-amr:10202</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>data integration</t>
+          <t>digital imaging</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -9649,12 +9649,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>id-amr:10202</t>
+          <t>id-amr:10203</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>digital imaging</t>
+          <t>FAIRification service</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -9690,12 +9690,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>id-amr:10203</t>
+          <t>id-amr:10204</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FAIRification service</t>
+          <t>providing reference materials</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -9731,12 +9731,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>id-amr:10204</t>
+          <t>id-amr:10205</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>providing reference materials</t>
+          <t>quality control</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -9772,12 +9772,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>id-amr:10205</t>
+          <t>id-amr:10206</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>quality control</t>
+          <t>regulatory</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -9813,12 +9813,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>id-amr:10206</t>
+          <t>id-amr:10207</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>regulatory</t>
+          <t>training</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9854,12 +9854,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>id-amr:10207</t>
+          <t>id-amr:10208</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9895,12 +9895,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>id-amr:10208</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>health data</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9908,7 +9908,7 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>gen:10013</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
@@ -9936,12 +9936,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>covid19:10262</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>health data</t>
+          <t>personal information data</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9977,12 +9977,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>covid19:10262</t>
+          <t>id-amr:10209</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>personal information data</t>
+          <t>national registries data</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -10018,22 +10018,18 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>id-amr:10209</t>
+          <t>id-amr:10210</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>national registries data</t>
+          <t>organisation level</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>gen:10005</t>
-        </is>
-      </c>
+      <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
@@ -10059,18 +10055,22 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>id-amr:10210</t>
+          <t>id-amr:10211</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>organisation level</t>
+          <t>university faculty</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>id-amr:10210</t>
+        </is>
+      </c>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -10096,12 +10096,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>id-amr:10211</t>
+          <t>id-amr:10212</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>university faculty</t>
+          <t>university hospital</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -10137,12 +10137,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>id-amr:10212</t>
+          <t>id-amr:10213</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>university hospital</t>
+          <t xml:space="preserve">laboratory </t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -10178,12 +10178,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>id-amr:10213</t>
+          <t>id-amr:10214</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve">laboratory </t>
+          <t>research group</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -10219,12 +10219,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>id-amr:10214</t>
+          <t>id-amr:10215</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>research group</t>
+          <t>specific research project</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -10260,12 +10260,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>id-amr:10215</t>
+          <t>id-amr:10216</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>specific research project</t>
+          <t>reference centre</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -10301,12 +10301,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>id-amr:10216</t>
+          <t>id-amr:10217</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>reference centre</t>
+          <t>company department</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -10342,12 +10342,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>id-amr:10217</t>
+          <t>id-amr:10218</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>company department</t>
+          <t>public funding</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -10355,7 +10355,7 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>id-amr:10210</t>
+          <t>id-amr:10261</t>
         </is>
       </c>
       <c r="G239" t="inlineStr"/>
@@ -10383,12 +10383,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>id-amr:10218</t>
+          <t>id-amr:10219</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>public funding</t>
+          <t>private funding</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -10424,12 +10424,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>id-amr:10219</t>
+          <t>id-amr:10220</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>private funding</t>
+          <t>charity of philanthropic funding</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -10465,22 +10465,18 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>id-amr:10220</t>
+          <t>id-amr:10221</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>charity of philanthropic funding</t>
+          <t>collection status</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>id-amr:10261</t>
-        </is>
-      </c>
+      <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -10506,18 +10502,22 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>id-amr:10221</t>
+          <t>id-amr:10222</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>collection status</t>
+          <t>not started</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>id-amr:10221</t>
+        </is>
+      </c>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
@@ -10543,12 +10543,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>id-amr:10222</t>
+          <t>id-amr:10223</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>not started</t>
+          <t>in progress</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -10584,12 +10584,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>id-amr:10223</t>
+          <t>id-amr:10224</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>in progress</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -10625,22 +10625,18 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>id-amr:10224</t>
+          <t>id-amr:10225</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>consent restriction</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>id-amr:10221</t>
-        </is>
-      </c>
+      <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
@@ -10666,18 +10662,22 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>id-amr:10225</t>
+          <t>id-amr:10226</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>consent restriction</t>
+          <t>commerial resctriction</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>id-amr:10225</t>
+        </is>
+      </c>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
@@ -10703,12 +10703,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>id-amr:10226</t>
+          <t>id-amr:10227</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>commerial resctriction</t>
+          <t>disease area restriction</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -10744,12 +10744,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>id-amr:10227</t>
+          <t>id-amr:10228</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>disease area restriction</t>
+          <t>export restriction</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -10785,12 +10785,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>id-amr:10228</t>
+          <t>id-amr:10229</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>export restriction</t>
+          <t>genetic analysis restriction</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -10826,12 +10826,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>id-amr:10229</t>
+          <t>id-amr:10230</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>genetic analysis restriction</t>
+          <t>human genetic analysis restriction</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -10867,12 +10867,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>id-amr:10230</t>
+          <t>id-amr:10231</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>human genetic analysis restriction</t>
+          <t>project specific restriction</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -10908,12 +10908,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>id-amr:10231</t>
+          <t>id-amr:10232</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>project specific restriction</t>
+          <t>scope of use restriction</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10949,22 +10949,18 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>id-amr:10232</t>
+          <t>id-amr:10233</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>scope of use restriction</t>
+          <t>access condition</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>id-amr:10225</t>
-        </is>
-      </c>
+      <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -10990,18 +10986,22 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>id-amr:10233</t>
+          <t>id-amr:10234</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>access condition</t>
+          <t>open to everyone</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>id-amr:10233</t>
+        </is>
+      </c>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -11027,12 +11027,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>id-amr:10234</t>
+          <t>id-amr:10235</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>open to everyone</t>
+          <t>open to applicants</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -11068,12 +11068,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>id-amr:10235</t>
+          <t>id-amr:10236</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>open to applicants</t>
+          <t>open in response to specific calls</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -11109,12 +11109,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>id-amr:10236</t>
+          <t>id-amr:10237</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>open in response to specific calls</t>
+          <t>open only through collaboration</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -11150,12 +11150,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>id-amr:10237</t>
+          <t>id-amr:10238</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>open only through collaboration</t>
+          <t>data access only</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -11191,12 +11191,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>id-amr:10238</t>
+          <t>id-amr:10239</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>data access only</t>
+          <t>access restricted at present</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -11232,12 +11232,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>id-amr:10239</t>
+          <t>id-amr:10240</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>access restricted at present</t>
+          <t>closed to access</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -11273,22 +11273,18 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>id-amr:10240</t>
+          <t>id-amr:10241</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>closed to access</t>
+          <t>time frame</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>id-amr:10233</t>
-        </is>
-      </c>
+      <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
@@ -11314,18 +11310,22 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>id-amr:10241</t>
+          <t>id-amr:10242</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>time frame</t>
+          <t>up to one month</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>id-amr:10241</t>
+        </is>
+      </c>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
@@ -11351,12 +11351,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>id-amr:10242</t>
+          <t>id-amr:10243</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>up to one month</t>
+          <t>up to one year</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -11392,12 +11392,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>id-amr:10243</t>
+          <t>id-amr:10244</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>up to one year</t>
+          <t>up to three years</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -11433,12 +11433,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>id-amr:10244</t>
+          <t>id-amr:10245</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>up to three years</t>
+          <t>three years or longer</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -11474,22 +11474,18 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>id-amr:10245</t>
+          <t>id-amr:10246</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>three years or longer</t>
+          <t>data quality</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>id-amr:10241</t>
-        </is>
-      </c>
+      <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
@@ -11515,18 +11511,22 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>id-amr:10246</t>
+          <t>id-amr:10247</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>data quality</t>
+          <t>data plausibility</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>id-amr:10246</t>
+        </is>
+      </c>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
@@ -11552,12 +11552,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>id-amr:10247</t>
+          <t>id-amr:10248</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>data plausibility</t>
+          <t>data completeness</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -11593,12 +11593,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>id-amr:10248</t>
+          <t>id-amr:10249</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>data completeness</t>
+          <t>data accuracy</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -11634,12 +11634,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>id-amr:10249</t>
+          <t>id-amr:10250</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>data accuracy</t>
+          <t>sensitive information</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -11647,7 +11647,7 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
         <is>
-          <t>id-amr:10246</t>
+          <t>covid19:10262</t>
         </is>
       </c>
       <c r="G271" t="inlineStr"/>
@@ -11675,12 +11675,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>id-amr:10250</t>
+          <t>id-amr:10251</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>sensitive information</t>
+          <t>yes, and it is GDPR compliant</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -11688,7 +11688,7 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>covid19:10262</t>
+          <t>id-amr:10250</t>
         </is>
       </c>
       <c r="G272" t="inlineStr"/>
@@ -11716,12 +11716,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>id-amr:10251</t>
+          <t>id-amr:10252</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>yes, and it is GDPR compliant</t>
+          <t>yes, but it is not (yet) GDPR compliant</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -11757,22 +11757,18 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>id-amr:10252</t>
+          <t>gen:10097</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>yes, but it is not (yet) GDPR compliant</t>
+          <t>plant disease</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>id-amr:10250</t>
-        </is>
-      </c>
+      <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
@@ -11798,18 +11794,22 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>gen:10097</t>
+          <t>id-amr:10253</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>plant disease</t>
+          <t>viral disease</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>gen:10097, gen:10096</t>
+        </is>
+      </c>
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
@@ -11835,12 +11835,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>id-amr:10253</t>
+          <t>id-amr:10254</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>viral disease</t>
+          <t>bacterial disease</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -11876,12 +11876,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>id-amr:10254</t>
+          <t>id-amr:10255</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>bacterial disease</t>
+          <t>fungal disease</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -11917,12 +11917,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>id-amr:10255</t>
+          <t>id-amr:10256</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>fungal disease</t>
+          <t>nematode disease</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -11958,12 +11958,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>id-amr:10256</t>
+          <t>id-amr:10257</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>nematode disease</t>
+          <t>phytoplasma disease</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -11971,7 +11971,7 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>gen:10097, gen:10096</t>
+          <t>gen:10097</t>
         </is>
       </c>
       <c r="G279" t="inlineStr"/>
@@ -11999,12 +11999,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>id-amr:10257</t>
+          <t>id-amr:10258</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>phytoplasma disease</t>
+          <t>disease caused by insects</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -12012,7 +12012,7 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>gen:10097</t>
+          <t>gen:10097, gen:10096</t>
         </is>
       </c>
       <c r="G280" t="inlineStr"/>
@@ -12040,12 +12040,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>id-amr:10258</t>
+          <t>id-amr:10259</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>disease caused by insects</t>
+          <t>parasite disease</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -12081,12 +12081,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>id-amr:10259</t>
+          <t>id-amr:10260</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>parasite disease</t>
+          <t>non-infectious disease</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -12122,22 +12122,18 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>id-amr:10260</t>
+          <t>gen:10096</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>non-infectious disease</t>
+          <t>animal disease</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>gen:10097, gen:10096</t>
-        </is>
-      </c>
+      <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
@@ -12163,12 +12159,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>gen:10096</t>
+          <t>id-amr:10261</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>animal disease</t>
+          <t>funding type</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -12200,18 +12196,22 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>id-amr:10261</t>
+          <t>id-amr:10262</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>funding type</t>
+          <t>storage</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>id-amr:10164</t>
+        </is>
+      </c>
       <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
@@ -12237,12 +12237,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>id-amr:10262</t>
+          <t>id-amr:10263</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>storage</t>
+          <t>centrifugation</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -12278,22 +12278,18 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>id-amr:10263</t>
+          <t>id-amr:10264</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>centrifugation</t>
+          <t>storage information</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>id-amr:10164</t>
-        </is>
-      </c>
+      <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -12319,12 +12315,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>id-amr:10264</t>
+          <t>id-amr:10265</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>storage information</t>
+          <t>centrifugation information</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -12356,12 +12352,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>id-amr:10265</t>
+          <t>id-amr:10266</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>centrifugation information</t>
+          <t>viability frequency</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -12390,43 +12386,6 @@
       <c r="Z289" t="inlineStr"/>
       <c r="AA289" t="inlineStr"/>
     </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>id-amr:10266</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>viability frequency</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr"/>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="inlineStr"/>
-      <c r="N290" t="inlineStr"/>
-      <c r="O290" t="inlineStr"/>
-      <c r="P290" t="inlineStr"/>
-      <c r="Q290" t="inlineStr"/>
-      <c r="R290" t="inlineStr"/>
-      <c r="S290" t="inlineStr"/>
-      <c r="T290" t="inlineStr"/>
-      <c r="U290" t="inlineStr"/>
-      <c r="V290" t="inlineStr"/>
-      <c r="W290" t="inlineStr"/>
-      <c r="X290" t="inlineStr"/>
-      <c r="Y290" t="inlineStr"/>
-      <c r="Z290" t="inlineStr"/>
-      <c r="AA290" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4566,7 +4566,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>health domain</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4082,7 +4082,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>data with respect to resistance</t>
+          <t>data regarding antimicrobial resistance</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
